--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530F7A59-41C7-8645-A0D9-28F52AFB35C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6B62EF-E736-4295-A593-BD28650552BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="35840" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="624" windowWidth="35844" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -275,13 +275,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -289,7 +289,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -342,526 +342,526 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="71">
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -880,16 +880,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FC937411-0054-48FF-9ED3-7D1A412C47EE}" name="表1" displayName="表1" ref="A1:OF279" headerRowCount="0">
   <tableColumns count="396">
     <tableColumn id="1" xr3:uid="{FE7203C8-91AB-43B8-8CBB-4498F3A6E0B7}" name="列1" totalsRowLabel="汇总"/>
-    <tableColumn id="2" xr3:uid="{5D1E913D-2A4A-487F-A1E2-E158FD6D07B6}" name="列2" headerRowDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{D0045C32-A934-4BF8-AAF4-BC934C14506D}" name="列3" headerRowDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{26B45943-1E98-41B6-A267-5AB4B817F63B}" name="列4" headerRowDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{2B8E2687-7194-4D08-ABDE-961A131F94E6}" name="列5" headerRowDxfId="67"/>
-    <tableColumn id="6" xr3:uid="{16F1A478-FD55-486F-9226-61DC718B5364}" name="列6" headerRowDxfId="66"/>
-    <tableColumn id="7" xr3:uid="{1A2340CA-E789-4036-9092-BBD8E501362C}" name="列7" headerRowDxfId="65"/>
-    <tableColumn id="8" xr3:uid="{03DCC289-F4AB-4ABE-A71C-4A5F3720A528}" name="列8" headerRowDxfId="64"/>
-    <tableColumn id="9" xr3:uid="{EB944A80-185C-49B4-ADF0-4E0A3B2493D7}" name="列9" headerRowDxfId="63"/>
-    <tableColumn id="10" xr3:uid="{903F3695-AE15-4A62-A2E5-BA1BDEA6B2EA}" name="列10" headerRowDxfId="62"/>
-    <tableColumn id="11" xr3:uid="{685DFAAD-A488-4A1F-AA74-67579C931B19}" name="列11" headerRowDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{5D1E913D-2A4A-487F-A1E2-E158FD6D07B6}" name="列2" headerRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{D0045C32-A934-4BF8-AAF4-BC934C14506D}" name="列3" headerRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{26B45943-1E98-41B6-A267-5AB4B817F63B}" name="列4" headerRowDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{2B8E2687-7194-4D08-ABDE-961A131F94E6}" name="列5" headerRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{16F1A478-FD55-486F-9226-61DC718B5364}" name="列6" headerRowDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{1A2340CA-E789-4036-9092-BBD8E501362C}" name="列7" headerRowDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{03DCC289-F4AB-4ABE-A71C-4A5F3720A528}" name="列8" headerRowDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{EB944A80-185C-49B4-ADF0-4E0A3B2493D7}" name="列9" headerRowDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{903F3695-AE15-4A62-A2E5-BA1BDEA6B2EA}" name="列10" headerRowDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{685DFAAD-A488-4A1F-AA74-67579C931B19}" name="列11" headerRowDxfId="0"/>
     <tableColumn id="12" xr3:uid="{0535F242-16B6-4215-ABC5-2A0E0227D068}" name="列12"/>
     <tableColumn id="13" xr3:uid="{C8C2EF57-9249-45BF-9A27-92ABC4D9DB44}" name="列13"/>
     <tableColumn id="14" xr3:uid="{0A1A68BC-2E04-4F0A-8CD6-B30183A99A14}" name="列14"/>
@@ -1546,32 +1546,45 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G80" sqref="G80"/>
+      <selection pane="bottomRight" activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
     <col min="6" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" customWidth="1"/>
-    <col min="11" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" customWidth="1"/>
     <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
     <col min="17" max="17" width="12.33203125" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="10.88671875" customWidth="1"/>
+    <col min="20" max="20" width="12.109375" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" customWidth="1"/>
+    <col min="22" max="22" width="11.5546875" customWidth="1"/>
+    <col min="23" max="23" width="9.88671875" customWidth="1"/>
+    <col min="24" max="24" width="11.77734375" customWidth="1"/>
+    <col min="25" max="25" width="11.33203125" customWidth="1"/>
+    <col min="26" max="26" width="10.88671875" customWidth="1"/>
+    <col min="27" max="27" width="10.6640625" customWidth="1"/>
+    <col min="28" max="28" width="10.5546875" customWidth="1"/>
+    <col min="29" max="29" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:396" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:396" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>46010</v>
       </c>
@@ -2758,7 +2771,7 @@
         <v>46404</v>
       </c>
     </row>
-    <row r="2" spans="1:396" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:396" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2768,13 +2781,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="2"/>
+      <c r="I2" s="4"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="Q2" s="2"/>
       <c r="AG2" s="3"/>
     </row>
-    <row r="3" spans="1:396" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:396" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2789,7 +2802,7 @@
       <c r="R3" s="2"/>
       <c r="AH3" s="3"/>
     </row>
-    <row r="4" spans="1:396" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:396" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2804,7 +2817,7 @@
       <c r="S4" s="2"/>
       <c r="AI4" s="3"/>
     </row>
-    <row r="5" spans="1:396" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:396" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2820,13 +2833,13 @@
       <c r="T5" s="2"/>
       <c r="AJ5" s="3"/>
     </row>
-    <row r="6" spans="1:396" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:396" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -2836,7 +2849,7 @@
       <c r="U6" s="2"/>
       <c r="AK6" s="3"/>
     </row>
-    <row r="7" spans="1:396" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:396" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2852,12 +2865,12 @@
       <c r="V7" s="2"/>
       <c r="AL7" s="3"/>
     </row>
-    <row r="8" spans="1:396" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:396" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="4"/>
       <c r="K8" s="2"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -2868,11 +2881,11 @@
       <c r="W8" s="2"/>
       <c r="AM8" s="3"/>
     </row>
-    <row r="9" spans="1:396" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:396" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="1"/>
@@ -2884,7 +2897,7 @@
       <c r="X9" s="2"/>
       <c r="AN9" s="3"/>
     </row>
-    <row r="10" spans="1:396" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:396" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2900,7 +2913,7 @@
       <c r="Y10" s="2"/>
       <c r="AO10" s="3"/>
     </row>
-    <row r="11" spans="1:396" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:396" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2916,7 +2929,7 @@
       <c r="Z11" s="2"/>
       <c r="AP11" s="3"/>
     </row>
-    <row r="12" spans="1:396" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:396" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2932,7 +2945,7 @@
       <c r="AA12" s="2"/>
       <c r="AQ12" s="3"/>
     </row>
-    <row r="13" spans="1:396" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:396" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2948,7 +2961,7 @@
       <c r="AB13" s="2"/>
       <c r="AR13" s="3"/>
     </row>
-    <row r="14" spans="1:396" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:396" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2964,7 +2977,7 @@
       <c r="AC14" s="2"/>
       <c r="AS14" s="3"/>
     </row>
-    <row r="15" spans="1:396" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:396" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2980,7 +2993,7 @@
       <c r="AD15" s="2"/>
       <c r="AT15" s="3"/>
     </row>
-    <row r="16" spans="1:396" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:396" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2996,7 +3009,7 @@
       <c r="AE16" s="2"/>
       <c r="AU16" s="3"/>
     </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3012,7 +3025,7 @@
       <c r="AF17" s="2"/>
       <c r="AV17" s="3"/>
     </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3028,7 +3041,7 @@
       <c r="AG18" s="2"/>
       <c r="AW18" s="3"/>
     </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3044,7 +3057,7 @@
       <c r="AH19" s="2"/>
       <c r="AX19" s="3"/>
     </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3060,7 +3073,7 @@
       <c r="AI20" s="2"/>
       <c r="AY20" s="3"/>
     </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3076,7 +3089,7 @@
       <c r="AJ21" s="2"/>
       <c r="AZ21" s="3"/>
     </row>
-    <row r="22" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3092,7 +3105,7 @@
       <c r="AK22" s="2"/>
       <c r="BA22" s="3"/>
     </row>
-    <row r="23" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3108,7 +3121,7 @@
       <c r="AL23" s="2"/>
       <c r="BB23" s="3"/>
     </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3124,7 +3137,7 @@
       <c r="AM24" s="2"/>
       <c r="BC24" s="3"/>
     </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3140,7 +3153,7 @@
       <c r="AN25" s="2"/>
       <c r="BD25" s="3"/>
     </row>
-    <row r="26" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3156,7 +3169,7 @@
       <c r="AO26" s="2"/>
       <c r="BE26" s="3"/>
     </row>
-    <row r="27" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3172,7 +3185,7 @@
       <c r="AP27" s="2"/>
       <c r="BF27" s="3"/>
     </row>
-    <row r="28" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3188,7 +3201,7 @@
       <c r="AQ28" s="2"/>
       <c r="BG28" s="3"/>
     </row>
-    <row r="29" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3204,7 +3217,7 @@
       <c r="AR29" s="2"/>
       <c r="BH29" s="3"/>
     </row>
-    <row r="30" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3220,7 +3233,7 @@
       <c r="AS30" s="2"/>
       <c r="BI30" s="3"/>
     </row>
-    <row r="31" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3236,7 +3249,7 @@
       <c r="AT31" s="2"/>
       <c r="BJ31" s="3"/>
     </row>
-    <row r="32" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3252,7 +3265,7 @@
       <c r="AU32" s="2"/>
       <c r="BK32" s="3"/>
     </row>
-    <row r="33" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3268,7 +3281,7 @@
       <c r="AV33" s="2"/>
       <c r="BL33" s="3"/>
     </row>
-    <row r="34" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3284,7 +3297,7 @@
       <c r="AW34" s="2"/>
       <c r="BM34" s="3"/>
     </row>
-    <row r="35" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3300,7 +3313,7 @@
       <c r="AX35" s="2"/>
       <c r="BN35" s="3"/>
     </row>
-    <row r="36" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -3316,7 +3329,7 @@
       <c r="AY36" s="2"/>
       <c r="BO36" s="3"/>
     </row>
-    <row r="37" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3332,7 +3345,7 @@
       <c r="AZ37" s="2"/>
       <c r="BP37" s="3"/>
     </row>
-    <row r="38" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3348,7 +3361,7 @@
       <c r="BA38" s="2"/>
       <c r="BQ38" s="3"/>
     </row>
-    <row r="39" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3364,7 +3377,7 @@
       <c r="BB39" s="2"/>
       <c r="BR39" s="3"/>
     </row>
-    <row r="40" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3380,7 +3393,7 @@
       <c r="BC40" s="2"/>
       <c r="BS40" s="3"/>
     </row>
-    <row r="41" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3396,7 +3409,7 @@
       <c r="BD41" s="2"/>
       <c r="BT41" s="3"/>
     </row>
-    <row r="42" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3412,7 +3425,7 @@
       <c r="BE42" s="2"/>
       <c r="BU42" s="3"/>
     </row>
-    <row r="43" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3428,7 +3441,7 @@
       <c r="BF43" s="2"/>
       <c r="BV43" s="3"/>
     </row>
-    <row r="44" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3444,7 +3457,7 @@
       <c r="BG44" s="2"/>
       <c r="BW44" s="3"/>
     </row>
-    <row r="45" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3460,7 +3473,7 @@
       <c r="BH45" s="2"/>
       <c r="BX45" s="3"/>
     </row>
-    <row r="46" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3476,7 +3489,7 @@
       <c r="BI46" s="2"/>
       <c r="BY46" s="3"/>
     </row>
-    <row r="47" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3492,7 +3505,7 @@
       <c r="BJ47" s="2"/>
       <c r="BZ47" s="3"/>
     </row>
-    <row r="48" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3508,7 +3521,7 @@
       <c r="BK48" s="2"/>
       <c r="CA48" s="3"/>
     </row>
-    <row r="49" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3524,7 +3537,7 @@
       <c r="BL49" s="2"/>
       <c r="CB49" s="3"/>
     </row>
-    <row r="50" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3540,7 +3553,7 @@
       <c r="BM50" s="2"/>
       <c r="CC50" s="3"/>
     </row>
-    <row r="51" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3556,7 +3569,7 @@
       <c r="BN51" s="2"/>
       <c r="CD51" s="3"/>
     </row>
-    <row r="52" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -3572,7 +3585,7 @@
       <c r="BO52" s="2"/>
       <c r="CE52" s="3"/>
     </row>
-    <row r="53" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -3588,7 +3601,7 @@
       <c r="BP53" s="2"/>
       <c r="CF53" s="3"/>
     </row>
-    <row r="54" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -3604,7 +3617,7 @@
       <c r="BQ54" s="2"/>
       <c r="CG54" s="3"/>
     </row>
-    <row r="55" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -3620,7 +3633,7 @@
       <c r="BR55" s="2"/>
       <c r="CH55" s="3"/>
     </row>
-    <row r="56" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -3636,7 +3649,7 @@
       <c r="BS56" s="2"/>
       <c r="CI56" s="3"/>
     </row>
-    <row r="57" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -3652,7 +3665,7 @@
       <c r="BT57" s="2"/>
       <c r="CJ57" s="3"/>
     </row>
-    <row r="58" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -3668,7 +3681,7 @@
       <c r="BU58" s="2"/>
       <c r="CK58" s="3"/>
     </row>
-    <row r="59" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -3684,7 +3697,7 @@
       <c r="BV59" s="2"/>
       <c r="CL59" s="3"/>
     </row>
-    <row r="60" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -3700,7 +3713,7 @@
       <c r="BW60" s="2"/>
       <c r="CM60" s="3"/>
     </row>
-    <row r="61" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -3716,7 +3729,7 @@
       <c r="BX61" s="2"/>
       <c r="CN61" s="3"/>
     </row>
-    <row r="62" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -3732,7 +3745,7 @@
       <c r="BY62" s="2"/>
       <c r="CO62" s="3"/>
     </row>
-    <row r="63" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -3748,7 +3761,7 @@
       <c r="BZ63" s="2"/>
       <c r="CP63" s="3"/>
     </row>
-    <row r="64" spans="1:95" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -3764,7 +3777,7 @@
       <c r="CA64" s="2"/>
       <c r="CQ64" s="3"/>
     </row>
-    <row r="65" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -3780,7 +3793,7 @@
       <c r="CB65" s="2"/>
       <c r="CR65" s="3"/>
     </row>
-    <row r="66" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -3796,7 +3809,7 @@
       <c r="CC66" s="2"/>
       <c r="CS66" s="3"/>
     </row>
-    <row r="67" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -3812,7 +3825,7 @@
       <c r="CD67" s="2"/>
       <c r="CT67" s="3"/>
     </row>
-    <row r="68" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -3828,7 +3841,7 @@
       <c r="CE68" s="2"/>
       <c r="CU68" s="3"/>
     </row>
-    <row r="69" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -3844,7 +3857,7 @@
       <c r="CF69" s="2"/>
       <c r="CV69" s="3"/>
     </row>
-    <row r="70" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -3860,7 +3873,7 @@
       <c r="CG70" s="2"/>
       <c r="CW70" s="3"/>
     </row>
-    <row r="71" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -3876,7 +3889,7 @@
       <c r="CH71" s="2"/>
       <c r="CX71" s="3"/>
     </row>
-    <row r="72" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -3892,7 +3905,7 @@
       <c r="CI72" s="2"/>
       <c r="CY72" s="3"/>
     </row>
-    <row r="73" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -3908,7 +3921,7 @@
       <c r="CJ73" s="2"/>
       <c r="CZ73" s="3"/>
     </row>
-    <row r="74" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -3924,7 +3937,7 @@
       <c r="CK74" s="2"/>
       <c r="DA74" s="3"/>
     </row>
-    <row r="75" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -3940,7 +3953,7 @@
       <c r="CL75" s="2"/>
       <c r="DB75" s="3"/>
     </row>
-    <row r="76" spans="1:107" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -3956,311 +3969,311 @@
       <c r="CM76" s="2"/>
       <c r="DC76" s="3"/>
     </row>
-    <row r="77" spans="1:107" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:107" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:J2 Q2 C3 J3 R3 F5:M5 T5 F6:N6 U6 G7:O7 V7 H8:P8 W8 I9:Q9 X9 J10:R10 Y10 K11:S11 Z11 L12:T12 AA12 M13:U13 AB13 N14:V14 AC14 O15:W15 AD15 P16:X16 AE16 Q17:Y17 AF17 R18:Z18 AG18 S19:AA19 AH19 T20:AB20 AI20 U21:AC21 AJ21">
-    <cfRule type="expression" dxfId="60" priority="99">
+    <cfRule type="expression" dxfId="70" priority="99">
       <formula>OR(B$1=$C2+0, B$1=$C2+1, B$1=$C2+3, B$1=$C2+7+$A$4, B$1=$C2+15, B$1=$C2+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 H3:I3 L3 E4 K4 S4">
-    <cfRule type="expression" dxfId="59" priority="139">
+    <cfRule type="expression" dxfId="69" priority="139">
       <formula>OR(D$1=#REF!+0, D$1=#REF!+1, D$1=#REF!+3, D$1=#REF!+7+$A$4, D$1=#REF!+15, D$1=#REF!+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4 F4 H4:I4">
-    <cfRule type="expression" dxfId="58" priority="136">
+    <cfRule type="expression" dxfId="68" priority="136">
       <formula>OR(D$1=$C3+0, D$1=$C3+1, D$1=$C3+3, D$1=$C3+7+$A$4, D$1=$C3+15, D$1=$C3+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="57" priority="142">
+    <cfRule type="expression" dxfId="67" priority="142">
       <formula>OR(E$1=$C6+0, E$1=$C6+1, E$1=$C6+3, E$1=$C6+7+$A$4, E$1=$C6+15, E$1=$C6+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="expression" dxfId="56" priority="182">
+    <cfRule type="expression" dxfId="66" priority="182">
       <formula>OR(G$1=#REF!+0, G$1=#REF!+1, G$1=#REF!+3, G$1=#REF!+7+$A$4, G$1=#REF!+15, G$1=#REF!+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="55" priority="56">
+    <cfRule type="expression" dxfId="65" priority="56">
       <formula>OR(H$1=#REF!+0, H$1=#REF!+1, H$1=#REF!+3, H$1=#REF!+7+$A$4, H$1=#REF!+15, H$1=#REF!+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22:AD22 AK22">
-    <cfRule type="expression" dxfId="54" priority="55">
+    <cfRule type="expression" dxfId="64" priority="55">
       <formula>OR(V$1=$C22+0, V$1=$C22+1, V$1=$C22+3, V$1=$C22+7+$A$4, V$1=$C22+15, V$1=$C22+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W23:AE23 AL23">
-    <cfRule type="expression" dxfId="53" priority="54">
+    <cfRule type="expression" dxfId="63" priority="54">
       <formula>OR(W$1=$C23+0, W$1=$C23+1, W$1=$C23+3, W$1=$C23+7+$A$4, W$1=$C23+15, W$1=$C23+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X24:AF24 AM24">
-    <cfRule type="expression" dxfId="52" priority="53">
+    <cfRule type="expression" dxfId="62" priority="53">
       <formula>OR(X$1=$C24+0, X$1=$C24+1, X$1=$C24+3, X$1=$C24+7+$A$4, X$1=$C24+15, X$1=$C24+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y25:AG25 AN25">
-    <cfRule type="expression" dxfId="51" priority="52">
+    <cfRule type="expression" dxfId="61" priority="52">
       <formula>OR(Y$1=$C25+0, Y$1=$C25+1, Y$1=$C25+3, Y$1=$C25+7+$A$4, Y$1=$C25+15, Y$1=$C25+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z26:AH26 AO26">
-    <cfRule type="expression" dxfId="50" priority="51">
+    <cfRule type="expression" dxfId="60" priority="51">
       <formula>OR(Z$1=$C26+0, Z$1=$C26+1, Z$1=$C26+3, Z$1=$C26+7+$A$4, Z$1=$C26+15, Z$1=$C26+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA27:AI27 AP27">
-    <cfRule type="expression" dxfId="49" priority="50">
+    <cfRule type="expression" dxfId="59" priority="50">
       <formula>OR(AA$1=$C27+0, AA$1=$C27+1, AA$1=$C27+3, AA$1=$C27+7+$A$4, AA$1=$C27+15, AA$1=$C27+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB28:AJ28 AQ28">
-    <cfRule type="expression" dxfId="48" priority="49">
+    <cfRule type="expression" dxfId="58" priority="49">
       <formula>OR(AB$1=$C28+0, AB$1=$C28+1, AB$1=$C28+3, AB$1=$C28+7+$A$4, AB$1=$C28+15, AB$1=$C28+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC29:AK29 AR29">
-    <cfRule type="expression" dxfId="47" priority="48">
+    <cfRule type="expression" dxfId="57" priority="48">
       <formula>OR(AC$1=$C29+0, AC$1=$C29+1, AC$1=$C29+3, AC$1=$C29+7+$A$4, AC$1=$C29+15, AC$1=$C29+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD30:AL30 AS30">
-    <cfRule type="expression" dxfId="46" priority="47">
+    <cfRule type="expression" dxfId="56" priority="47">
       <formula>OR(AD$1=$C30+0, AD$1=$C30+1, AD$1=$C30+3, AD$1=$C30+7+$A$4, AD$1=$C30+15, AD$1=$C30+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE31:AM31 AT31">
-    <cfRule type="expression" dxfId="45" priority="46">
+    <cfRule type="expression" dxfId="55" priority="46">
       <formula>OR(AE$1=$C31+0, AE$1=$C31+1, AE$1=$C31+3, AE$1=$C31+7+$A$4, AE$1=$C31+15, AE$1=$C31+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF32:AN32 AU32">
-    <cfRule type="expression" dxfId="44" priority="45">
+    <cfRule type="expression" dxfId="54" priority="45">
       <formula>OR(AF$1=$C32+0, AF$1=$C32+1, AF$1=$C32+3, AF$1=$C32+7+$A$4, AF$1=$C32+15, AF$1=$C32+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG33:AO33 AV33">
-    <cfRule type="expression" dxfId="43" priority="44">
+    <cfRule type="expression" dxfId="53" priority="44">
       <formula>OR(AG$1=$C33+0, AG$1=$C33+1, AG$1=$C33+3, AG$1=$C33+7+$A$4, AG$1=$C33+15, AG$1=$C33+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH34:AP34 AW34">
-    <cfRule type="expression" dxfId="42" priority="43">
+    <cfRule type="expression" dxfId="52" priority="43">
       <formula>OR(AH$1=$C34+0, AH$1=$C34+1, AH$1=$C34+3, AH$1=$C34+7+$A$4, AH$1=$C34+15, AH$1=$C34+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI35:AQ35 AX35">
-    <cfRule type="expression" dxfId="41" priority="42">
+    <cfRule type="expression" dxfId="51" priority="42">
       <formula>OR(AI$1=$C35+0, AI$1=$C35+1, AI$1=$C35+3, AI$1=$C35+7+$A$4, AI$1=$C35+15, AI$1=$C35+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ36:AR36 AY36">
-    <cfRule type="expression" dxfId="40" priority="41">
+    <cfRule type="expression" dxfId="50" priority="41">
       <formula>OR(AJ$1=$C36+0, AJ$1=$C36+1, AJ$1=$C36+3, AJ$1=$C36+7+$A$4, AJ$1=$C36+15, AJ$1=$C36+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK37:AS37 AZ37">
-    <cfRule type="expression" dxfId="39" priority="40">
+    <cfRule type="expression" dxfId="49" priority="40">
       <formula>OR(AK$1=$C37+0, AK$1=$C37+1, AK$1=$C37+3, AK$1=$C37+7+$A$4, AK$1=$C37+15, AK$1=$C37+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL38:AT38 BA38">
-    <cfRule type="expression" dxfId="38" priority="39">
+    <cfRule type="expression" dxfId="48" priority="39">
       <formula>OR(AL$1=$C38+0, AL$1=$C38+1, AL$1=$C38+3, AL$1=$C38+7+$A$4, AL$1=$C38+15, AL$1=$C38+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM39:AU39 BB39">
-    <cfRule type="expression" dxfId="37" priority="38">
+    <cfRule type="expression" dxfId="47" priority="38">
       <formula>OR(AM$1=$C39+0, AM$1=$C39+1, AM$1=$C39+3, AM$1=$C39+7+$A$4, AM$1=$C39+15, AM$1=$C39+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN40:AV40 BC40">
-    <cfRule type="expression" dxfId="36" priority="37">
+    <cfRule type="expression" dxfId="46" priority="37">
       <formula>OR(AN$1=$C40+0, AN$1=$C40+1, AN$1=$C40+3, AN$1=$C40+7+$A$4, AN$1=$C40+15, AN$1=$C40+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO41:AW41 BD41">
-    <cfRule type="expression" dxfId="35" priority="36">
+    <cfRule type="expression" dxfId="45" priority="36">
       <formula>OR(AO$1=$C41+0, AO$1=$C41+1, AO$1=$C41+3, AO$1=$C41+7+$A$4, AO$1=$C41+15, AO$1=$C41+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP42:AX42 BE42">
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="44" priority="35">
       <formula>OR(AP$1=$C42+0, AP$1=$C42+1, AP$1=$C42+3, AP$1=$C42+7+$A$4, AP$1=$C42+15, AP$1=$C42+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ43:AY43 BF43">
-    <cfRule type="expression" dxfId="33" priority="34">
+    <cfRule type="expression" dxfId="43" priority="34">
       <formula>OR(AQ$1=$C43+0, AQ$1=$C43+1, AQ$1=$C43+3, AQ$1=$C43+7+$A$4, AQ$1=$C43+15, AQ$1=$C43+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR44:AZ44 BG44">
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="42" priority="33">
       <formula>OR(AR$1=$C44+0, AR$1=$C44+1, AR$1=$C44+3, AR$1=$C44+7+$A$4, AR$1=$C44+15, AR$1=$C44+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS45:BA45 BH45">
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="41" priority="32">
       <formula>OR(AS$1=$C45+0, AS$1=$C45+1, AS$1=$C45+3, AS$1=$C45+7+$A$4, AS$1=$C45+15, AS$1=$C45+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT46:BB46 BI46">
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="40" priority="31">
       <formula>OR(AT$1=$C46+0, AT$1=$C46+1, AT$1=$C46+3, AT$1=$C46+7+$A$4, AT$1=$C46+15, AT$1=$C46+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:BC47 BJ47">
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="39" priority="30">
       <formula>OR(AU$1=$C47+0, AU$1=$C47+1, AU$1=$C47+3, AU$1=$C47+7+$A$4, AU$1=$C47+15, AU$1=$C47+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV48:BD48 BK48">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="38" priority="29">
       <formula>OR(AV$1=$C48+0, AV$1=$C48+1, AV$1=$C48+3, AV$1=$C48+7+$A$4, AV$1=$C48+15, AV$1=$C48+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW49:BE49 BL49">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="37" priority="28">
       <formula>OR(AW$1=$C49+0, AW$1=$C49+1, AW$1=$C49+3, AW$1=$C49+7+$A$4, AW$1=$C49+15, AW$1=$C49+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX50:BF50 BM50">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="36" priority="27">
       <formula>OR(AX$1=$C50+0, AX$1=$C50+1, AX$1=$C50+3, AX$1=$C50+7+$A$4, AX$1=$C50+15, AX$1=$C50+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY51:BG51 BN51">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="35" priority="26">
       <formula>OR(AY$1=$C51+0, AY$1=$C51+1, AY$1=$C51+3, AY$1=$C51+7+$A$4, AY$1=$C51+15, AY$1=$C51+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ52:BH52 BO52">
-    <cfRule type="expression" dxfId="24" priority="25">
+    <cfRule type="expression" dxfId="34" priority="25">
       <formula>OR(AZ$1=$C52+0, AZ$1=$C52+1, AZ$1=$C52+3, AZ$1=$C52+7+$A$4, AZ$1=$C52+15, AZ$1=$C52+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA53:BI53 BP53">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="33" priority="24">
       <formula>OR(BA$1=$C53+0, BA$1=$C53+1, BA$1=$C53+3, BA$1=$C53+7+$A$4, BA$1=$C53+15, BA$1=$C53+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB54:BJ54 BQ54">
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="32" priority="23">
       <formula>OR(BB$1=$C54+0, BB$1=$C54+1, BB$1=$C54+3, BB$1=$C54+7+$A$4, BB$1=$C54+15, BB$1=$C54+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC55:BK55 BR55">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="31" priority="22">
       <formula>OR(BC$1=$C55+0, BC$1=$C55+1, BC$1=$C55+3, BC$1=$C55+7+$A$4, BC$1=$C55+15, BC$1=$C55+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD56:BL56 BS56">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="30" priority="21">
       <formula>OR(BD$1=$C56+0, BD$1=$C56+1, BD$1=$C56+3, BD$1=$C56+7+$A$4, BD$1=$C56+15, BD$1=$C56+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE57:BM57 BT57">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="29" priority="20">
       <formula>OR(BE$1=$C57+0, BE$1=$C57+1, BE$1=$C57+3, BE$1=$C57+7+$A$4, BE$1=$C57+15, BE$1=$C57+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF58:BN58 BU58">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="28" priority="19">
       <formula>OR(BF$1=$C58+0, BF$1=$C58+1, BF$1=$C58+3, BF$1=$C58+7+$A$4, BF$1=$C58+15, BF$1=$C58+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG59:BO59 BV59">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="27" priority="18">
       <formula>OR(BG$1=$C59+0, BG$1=$C59+1, BG$1=$C59+3, BG$1=$C59+7+$A$4, BG$1=$C59+15, BG$1=$C59+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH60:BP60 BW60">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="26" priority="17">
       <formula>OR(BH$1=$C60+0, BH$1=$C60+1, BH$1=$C60+3, BH$1=$C60+7+$A$4, BH$1=$C60+15, BH$1=$C60+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI61:BQ61 BX61">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="25" priority="16">
       <formula>OR(BI$1=$C61+0, BI$1=$C61+1, BI$1=$C61+3, BI$1=$C61+7+$A$4, BI$1=$C61+15, BI$1=$C61+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ62:BR62 BY62">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="24" priority="15">
       <formula>OR(BJ$1=$C62+0, BJ$1=$C62+1, BJ$1=$C62+3, BJ$1=$C62+7+$A$4, BJ$1=$C62+15, BJ$1=$C62+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK63:BS63 BZ63">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="23" priority="14">
       <formula>OR(BK$1=$C63+0, BK$1=$C63+1, BK$1=$C63+3, BK$1=$C63+7+$A$4, BK$1=$C63+15, BK$1=$C63+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL64:BT64 CA64">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="22" priority="13">
       <formula>OR(BL$1=$C64+0, BL$1=$C64+1, BL$1=$C64+3, BL$1=$C64+7+$A$4, BL$1=$C64+15, BL$1=$C64+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM65:BU65 CB65">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="21" priority="12">
       <formula>OR(BM$1=$C65+0, BM$1=$C65+1, BM$1=$C65+3, BM$1=$C65+7+$A$4, BM$1=$C65+15, BM$1=$C65+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN66:BV66 CC66">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="20" priority="11">
       <formula>OR(BN$1=$C66+0, BN$1=$C66+1, BN$1=$C66+3, BN$1=$C66+7+$A$4, BN$1=$C66+15, BN$1=$C66+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO67:BW67 CD67">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="19" priority="10">
       <formula>OR(BO$1=$C67+0, BO$1=$C67+1, BO$1=$C67+3, BO$1=$C67+7+$A$4, BO$1=$C67+15, BO$1=$C67+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP68:BX68 CE68">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="18" priority="9">
       <formula>OR(BP$1=$C68+0, BP$1=$C68+1, BP$1=$C68+3, BP$1=$C68+7+$A$4, BP$1=$C68+15, BP$1=$C68+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ69:BY69 CF69">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="17" priority="8">
       <formula>OR(BQ$1=$C69+0, BQ$1=$C69+1, BQ$1=$C69+3, BQ$1=$C69+7+$A$4, BQ$1=$C69+15, BQ$1=$C69+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR70:BZ70 CG70">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="16" priority="7">
       <formula>OR(BR$1=$C70+0, BR$1=$C70+1, BR$1=$C70+3, BR$1=$C70+7+$A$4, BR$1=$C70+15, BR$1=$C70+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS71:CA71 CH71">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="15" priority="6">
       <formula>OR(BS$1=$C71+0, BS$1=$C71+1, BS$1=$C71+3, BS$1=$C71+7+$A$4, BS$1=$C71+15, BS$1=$C71+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT72:CB72 CI72">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>OR(BT$1=$C72+0, BT$1=$C72+1, BT$1=$C72+3, BT$1=$C72+7+$A$4, BT$1=$C72+15, BT$1=$C72+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU73:CC73 CJ73">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>OR(BU$1=$C73+0, BU$1=$C73+1, BU$1=$C73+3, BU$1=$C73+7+$A$4, BU$1=$C73+15, BU$1=$C73+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV74:CD74 CK74">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>OR(BV$1=$C74+0, BV$1=$C74+1, BV$1=$C74+3, BV$1=$C74+7+$A$4, BV$1=$C74+15, BV$1=$C74+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW75:CE75 CL75">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>OR(BW$1=$C75+0, BW$1=$C75+1, BW$1=$C75+3, BW$1=$C75+7+$A$4, BW$1=$C75+15, BW$1=$C75+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX76:CF76 CM76">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>OR(BX$1=$C76+0, BX$1=$C76+1, BX$1=$C76+3, BX$1=$C76+7+$A$4, BX$1=$C76+15, BX$1=$C76+30)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6B62EF-E736-4295-A593-BD28650552BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB569812-ACD4-4BD7-98AE-B78533C0D68A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="624" windowWidth="35844" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1546,10 +1546,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X7" sqref="X7"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB569812-ACD4-4BD7-98AE-B78533C0D68A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EBD859-5415-4C71-ABDA-05048B15762F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="624" windowWidth="35844" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1546,42 +1546,41 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="10.88671875" customWidth="1"/>
-    <col min="20" max="20" width="12.109375" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" customWidth="1"/>
-    <col min="22" max="22" width="11.5546875" customWidth="1"/>
-    <col min="23" max="23" width="9.88671875" customWidth="1"/>
-    <col min="24" max="24" width="11.77734375" customWidth="1"/>
-    <col min="25" max="25" width="11.33203125" customWidth="1"/>
-    <col min="26" max="26" width="10.88671875" customWidth="1"/>
-    <col min="27" max="27" width="10.6640625" customWidth="1"/>
-    <col min="28" max="28" width="10.5546875" customWidth="1"/>
-    <col min="29" max="29" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="23" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="45" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="54" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="73" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="82" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="83" max="104" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="105" max="113" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="114" max="134" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="135" max="143" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="144" max="165" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="166" max="174" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="175" max="195" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="196" max="204" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="205" max="226" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="227" max="235" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="236" max="257" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="258" max="266" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="267" max="296" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="297" max="318" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="319" max="327" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="328" max="348" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="349" max="357" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="358" max="379" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="380" max="388" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="389" max="396" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:396" x14ac:dyDescent="0.25">

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EBD859-5415-4C71-ABDA-05048B15762F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11C59AA-B516-48C5-B50A-C0A81D51AAD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="624" windowWidth="35844" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="75">
   <si>
     <t>0~50.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1549,7 +1549,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2795,7 +2795,7 @@
       <c r="F3" s="4"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="2"/>
+      <c r="J3" s="4"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="R3" s="2"/>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -2885,7 +2885,7 @@
         <v>7</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="4"/>
       <c r="L9" s="2"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -2900,7 +2900,7 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="1"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11C59AA-B516-48C5-B50A-C0A81D51AAD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1DB598-8DBA-4E39-A239-FC34A6EBCA33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="624" windowWidth="35844" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1546,10 +1546,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2901,7 +2901,7 @@
         <v>8</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="4"/>
       <c r="M10" s="2"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1DB598-8DBA-4E39-A239-FC34A6EBCA33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C56277-A54F-4733-8B18-ACE227B4513F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="624" windowWidth="35844" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>0~50.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1549,7 +1549,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2811,7 +2811,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="K4" s="2"/>
+      <c r="K4" s="4"/>
       <c r="L4" s="1"/>
       <c r="S4" s="2"/>
       <c r="AI4" s="3"/>
@@ -2870,7 +2870,7 @@
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="K8" s="2"/>
+      <c r="K8" s="4"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -2916,7 +2916,7 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="4"/>
       <c r="L11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="1"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C56277-A54F-4733-8B18-ACE227B4513F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22A6B53-9CA5-49B6-A53D-A943636E1883}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="624" windowWidth="35844" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1546,10 +1546,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomRight" activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22A6B53-9CA5-49B6-A53D-A943636E1883}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785D2AEC-ADE4-47FB-9D5A-F1B0FCB48B42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="624" windowWidth="35844" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1546,10 +1546,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U13" sqref="U13"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2826,7 +2826,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="2"/>
+      <c r="L5" s="4"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="T5" s="2"/>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="L9" s="2"/>
+      <c r="L9" s="4"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -2917,7 +2917,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="4"/>
-      <c r="L11" s="2"/>
+      <c r="L11" s="4"/>
       <c r="N11" s="2"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -2932,7 +2932,7 @@
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="2"/>
+      <c r="L12" s="4"/>
       <c r="M12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="1"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785D2AEC-ADE4-47FB-9D5A-F1B0FCB48B42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2053DB4-0808-49AB-A333-9253D952DF86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="624" windowWidth="35844" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1546,10 +1546,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2842,7 +2842,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="2"/>
+      <c r="M6" s="4"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="U6" s="2"/>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="M10" s="2"/>
+      <c r="M10" s="4"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -2933,7 +2933,7 @@
         <v>19</v>
       </c>
       <c r="L12" s="4"/>
-      <c r="M12" s="2"/>
+      <c r="M12" s="4"/>
       <c r="O12" s="2"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -2948,7 +2948,7 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" s="4"/>
       <c r="N13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="1"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2053DB4-0808-49AB-A333-9253D952DF86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF743B1-5036-4411-A3DD-DC06A939EA5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="624" windowWidth="35844" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1546,10 +1546,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2858,7 +2858,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="2"/>
+      <c r="N7" s="4"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="V7" s="2"/>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="N11" s="2"/>
+      <c r="N11" s="4"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -2949,7 +2949,7 @@
         <v>10</v>
       </c>
       <c r="M13" s="4"/>
-      <c r="N13" s="2"/>
+      <c r="N13" s="4"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -2964,7 +2964,7 @@
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="N14" s="2"/>
+      <c r="N14" s="4"/>
       <c r="O14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="1"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF743B1-5036-4411-A3DD-DC06A939EA5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB15338E-0048-4D80-A9B6-93E1AC052814}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="624" windowWidth="35844" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1546,10 +1546,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2874,7 +2874,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="2"/>
+      <c r="O8" s="4"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="W8" s="2"/>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="O12" s="2"/>
+      <c r="O12" s="4"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -2965,7 +2965,7 @@
         <v>11</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="2"/>
+      <c r="O14" s="4"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -2980,7 +2980,7 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="2"/>
+      <c r="O15" s="4"/>
       <c r="P15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="1"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB15338E-0048-4D80-A9B6-93E1AC052814}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F325C6-E21F-42E9-9847-02800691F992}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="624" windowWidth="35844" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1546,10 +1546,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
+      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2890,7 +2890,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="2"/>
+      <c r="P9" s="4"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="X9" s="2"/>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="P13" s="2"/>
+      <c r="P13" s="4"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -2981,7 +2981,7 @@
         <v>12</v>
       </c>
       <c r="O15" s="4"/>
-      <c r="P15" s="2"/>
+      <c r="P15" s="4"/>
       <c r="R15" s="2"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2996,7 +2996,7 @@
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="P16" s="2"/>
+      <c r="P16" s="4"/>
       <c r="Q16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="1"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F325C6-E21F-42E9-9847-02800691F992}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB245B0-65B5-4A00-8210-B8A93E84B935}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="624" windowWidth="35844" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1546,7 +1546,7 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
@@ -2783,7 +2783,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="Q2" s="2"/>
+      <c r="Q2" s="4"/>
       <c r="AG2" s="3"/>
     </row>
     <row r="3" spans="1:396" x14ac:dyDescent="0.25">
@@ -2906,7 +2906,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
+      <c r="Q10" s="4"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="Y10" s="2"/>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="4"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2997,7 +2997,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="4"/>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="4"/>
       <c r="S16" s="2"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -3012,7 +3012,7 @@
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="Q17" s="2"/>
+      <c r="Q17" s="4"/>
       <c r="R17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="1"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB245B0-65B5-4A00-8210-B8A93E84B935}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2198E2D-BA45-4458-908F-5D619F092247}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="624" windowWidth="35844" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="75">
   <si>
     <t>0~50.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1546,10 +1546,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomRight" activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2798,7 +2798,7 @@
       <c r="J3" s="4"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="R3" s="2"/>
+      <c r="R3" s="4"/>
       <c r="AH3" s="3"/>
     </row>
     <row r="4" spans="1:396" x14ac:dyDescent="0.25">
@@ -2922,7 +2922,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
+      <c r="R11" s="4"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="Z11" s="2"/>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
-      <c r="R15" s="2"/>
+      <c r="R15" s="4"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -3013,7 +3013,7 @@
         <v>14</v>
       </c>
       <c r="Q17" s="4"/>
-      <c r="R17" s="2"/>
+      <c r="R17" s="4"/>
       <c r="T17" s="2"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
@@ -3028,7 +3028,7 @@
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="R18" s="2"/>
+      <c r="R18" s="4"/>
       <c r="S18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="1"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2198E2D-BA45-4458-908F-5D619F092247}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3FEFE0-BF09-D345-831A-178C52A05965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="624" windowWidth="35844" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="35840" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>0~50.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,13 +275,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -289,7 +289,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -342,526 +342,526 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="71">
     <dxf>
-      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="45" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -880,16 +880,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FC937411-0054-48FF-9ED3-7D1A412C47EE}" name="表1" displayName="表1" ref="A1:OF279" headerRowCount="0">
   <tableColumns count="396">
     <tableColumn id="1" xr3:uid="{FE7203C8-91AB-43B8-8CBB-4498F3A6E0B7}" name="列1" totalsRowLabel="汇总"/>
-    <tableColumn id="2" xr3:uid="{5D1E913D-2A4A-487F-A1E2-E158FD6D07B6}" name="列2" headerRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{D0045C32-A934-4BF8-AAF4-BC934C14506D}" name="列3" headerRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{26B45943-1E98-41B6-A267-5AB4B817F63B}" name="列4" headerRowDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{2B8E2687-7194-4D08-ABDE-961A131F94E6}" name="列5" headerRowDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{16F1A478-FD55-486F-9226-61DC718B5364}" name="列6" headerRowDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{1A2340CA-E789-4036-9092-BBD8E501362C}" name="列7" headerRowDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{03DCC289-F4AB-4ABE-A71C-4A5F3720A528}" name="列8" headerRowDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{EB944A80-185C-49B4-ADF0-4E0A3B2493D7}" name="列9" headerRowDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{903F3695-AE15-4A62-A2E5-BA1BDEA6B2EA}" name="列10" headerRowDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{685DFAAD-A488-4A1F-AA74-67579C931B19}" name="列11" headerRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{5D1E913D-2A4A-487F-A1E2-E158FD6D07B6}" name="列2" headerRowDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{D0045C32-A934-4BF8-AAF4-BC934C14506D}" name="列3" headerRowDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{26B45943-1E98-41B6-A267-5AB4B817F63B}" name="列4" headerRowDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{2B8E2687-7194-4D08-ABDE-961A131F94E6}" name="列5" headerRowDxfId="67"/>
+    <tableColumn id="6" xr3:uid="{16F1A478-FD55-486F-9226-61DC718B5364}" name="列6" headerRowDxfId="66"/>
+    <tableColumn id="7" xr3:uid="{1A2340CA-E789-4036-9092-BBD8E501362C}" name="列7" headerRowDxfId="65"/>
+    <tableColumn id="8" xr3:uid="{03DCC289-F4AB-4ABE-A71C-4A5F3720A528}" name="列8" headerRowDxfId="64"/>
+    <tableColumn id="9" xr3:uid="{EB944A80-185C-49B4-ADF0-4E0A3B2493D7}" name="列9" headerRowDxfId="63"/>
+    <tableColumn id="10" xr3:uid="{903F3695-AE15-4A62-A2E5-BA1BDEA6B2EA}" name="列10" headerRowDxfId="62"/>
+    <tableColumn id="11" xr3:uid="{685DFAAD-A488-4A1F-AA74-67579C931B19}" name="列11" headerRowDxfId="61"/>
     <tableColumn id="12" xr3:uid="{0535F242-16B6-4215-ABC5-2A0E0227D068}" name="列12"/>
     <tableColumn id="13" xr3:uid="{C8C2EF57-9249-45BF-9A27-92ABC4D9DB44}" name="列13"/>
     <tableColumn id="14" xr3:uid="{0A1A68BC-2E04-4F0A-8CD6-B30183A99A14}" name="列14"/>
@@ -1549,41 +1549,41 @@
       <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA5" sqref="AA5"/>
+      <selection pane="bottomRight" activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="14" width="11.5" bestFit="1" customWidth="1"/>
     <col min="15" max="23" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="45" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="45" width="10.5" bestFit="1" customWidth="1"/>
     <col min="46" max="54" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="73" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="73" width="10.5" bestFit="1" customWidth="1"/>
     <col min="74" max="82" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="83" max="104" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="83" max="104" width="10.5" bestFit="1" customWidth="1"/>
     <col min="105" max="113" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="114" max="134" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="114" max="134" width="10.5" bestFit="1" customWidth="1"/>
     <col min="135" max="143" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="144" max="165" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="144" max="165" width="10.5" bestFit="1" customWidth="1"/>
     <col min="166" max="174" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="175" max="195" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="175" max="195" width="10.5" bestFit="1" customWidth="1"/>
     <col min="196" max="204" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="205" max="226" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="205" max="226" width="10.5" bestFit="1" customWidth="1"/>
     <col min="227" max="235" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="236" max="257" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="236" max="257" width="10.5" bestFit="1" customWidth="1"/>
     <col min="258" max="266" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="267" max="296" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="297" max="318" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="319" max="327" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="328" max="348" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="349" max="357" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="358" max="379" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="267" max="296" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="297" max="318" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="319" max="327" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="328" max="348" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="349" max="357" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="358" max="379" width="11.5" bestFit="1" customWidth="1"/>
     <col min="380" max="388" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="389" max="396" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="389" max="396" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:396" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:396" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>46010</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>46404</v>
       </c>
     </row>
-    <row r="2" spans="1:396" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:396" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2786,7 +2786,7 @@
       <c r="Q2" s="4"/>
       <c r="AG2" s="3"/>
     </row>
-    <row r="3" spans="1:396" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:396" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2801,7 +2801,7 @@
       <c r="R3" s="4"/>
       <c r="AH3" s="3"/>
     </row>
-    <row r="4" spans="1:396" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:396" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2813,10 +2813,10 @@
       <c r="I4" s="1"/>
       <c r="K4" s="4"/>
       <c r="L4" s="1"/>
-      <c r="S4" s="2"/>
+      <c r="S4" s="4"/>
       <c r="AI4" s="3"/>
     </row>
-    <row r="5" spans="1:396" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:396" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2832,7 +2832,7 @@
       <c r="T5" s="2"/>
       <c r="AJ5" s="3"/>
     </row>
-    <row r="6" spans="1:396" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:396" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2848,7 +2848,7 @@
       <c r="U6" s="2"/>
       <c r="AK6" s="3"/>
     </row>
-    <row r="7" spans="1:396" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:396" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2864,7 +2864,7 @@
       <c r="V7" s="2"/>
       <c r="AL7" s="3"/>
     </row>
-    <row r="8" spans="1:396" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:396" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2880,7 +2880,7 @@
       <c r="W8" s="2"/>
       <c r="AM8" s="3"/>
     </row>
-    <row r="9" spans="1:396" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:396" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2896,7 +2896,7 @@
       <c r="X9" s="2"/>
       <c r="AN9" s="3"/>
     </row>
-    <row r="10" spans="1:396" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:396" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2912,7 +2912,7 @@
       <c r="Y10" s="2"/>
       <c r="AO10" s="3"/>
     </row>
-    <row r="11" spans="1:396" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:396" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2928,7 +2928,7 @@
       <c r="Z11" s="2"/>
       <c r="AP11" s="3"/>
     </row>
-    <row r="12" spans="1:396" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:396" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2938,13 +2938,13 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="2"/>
+      <c r="S12" s="4"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="AA12" s="2"/>
       <c r="AQ12" s="3"/>
     </row>
-    <row r="13" spans="1:396" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:396" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2960,7 +2960,7 @@
       <c r="AB13" s="2"/>
       <c r="AR13" s="3"/>
     </row>
-    <row r="14" spans="1:396" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:396" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2976,7 +2976,7 @@
       <c r="AC14" s="2"/>
       <c r="AS14" s="3"/>
     </row>
-    <row r="15" spans="1:396" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:396" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2992,13 +2992,13 @@
       <c r="AD15" s="2"/>
       <c r="AT15" s="3"/>
     </row>
-    <row r="16" spans="1:396" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:396" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
-      <c r="S16" s="2"/>
+      <c r="S16" s="4"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -3008,7 +3008,7 @@
       <c r="AE16" s="2"/>
       <c r="AU16" s="3"/>
     </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3024,12 +3024,12 @@
       <c r="AF17" s="2"/>
       <c r="AV17" s="3"/>
     </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="R18" s="4"/>
-      <c r="S18" s="2"/>
+      <c r="S18" s="4"/>
       <c r="U18" s="2"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
@@ -3040,11 +3040,11 @@
       <c r="AG18" s="2"/>
       <c r="AW18" s="3"/>
     </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="S19" s="2"/>
+      <c r="S19" s="4"/>
       <c r="T19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="1"/>
@@ -3056,7 +3056,7 @@
       <c r="AH19" s="2"/>
       <c r="AX19" s="3"/>
     </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3072,7 +3072,7 @@
       <c r="AI20" s="2"/>
       <c r="AY20" s="3"/>
     </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3088,7 +3088,7 @@
       <c r="AJ21" s="2"/>
       <c r="AZ21" s="3"/>
     </row>
-    <row r="22" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3104,7 +3104,7 @@
       <c r="AK22" s="2"/>
       <c r="BA22" s="3"/>
     </row>
-    <row r="23" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3120,7 +3120,7 @@
       <c r="AL23" s="2"/>
       <c r="BB23" s="3"/>
     </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3136,7 +3136,7 @@
       <c r="AM24" s="2"/>
       <c r="BC24" s="3"/>
     </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3152,7 +3152,7 @@
       <c r="AN25" s="2"/>
       <c r="BD25" s="3"/>
     </row>
-    <row r="26" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3168,7 +3168,7 @@
       <c r="AO26" s="2"/>
       <c r="BE26" s="3"/>
     </row>
-    <row r="27" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="AP27" s="2"/>
       <c r="BF27" s="3"/>
     </row>
-    <row r="28" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3200,7 +3200,7 @@
       <c r="AQ28" s="2"/>
       <c r="BG28" s="3"/>
     </row>
-    <row r="29" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3216,7 +3216,7 @@
       <c r="AR29" s="2"/>
       <c r="BH29" s="3"/>
     </row>
-    <row r="30" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3232,7 +3232,7 @@
       <c r="AS30" s="2"/>
       <c r="BI30" s="3"/>
     </row>
-    <row r="31" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3248,7 +3248,7 @@
       <c r="AT31" s="2"/>
       <c r="BJ31" s="3"/>
     </row>
-    <row r="32" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3264,7 +3264,7 @@
       <c r="AU32" s="2"/>
       <c r="BK32" s="3"/>
     </row>
-    <row r="33" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3280,7 +3280,7 @@
       <c r="AV33" s="2"/>
       <c r="BL33" s="3"/>
     </row>
-    <row r="34" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3296,7 +3296,7 @@
       <c r="AW34" s="2"/>
       <c r="BM34" s="3"/>
     </row>
-    <row r="35" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3312,7 +3312,7 @@
       <c r="AX35" s="2"/>
       <c r="BN35" s="3"/>
     </row>
-    <row r="36" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -3328,7 +3328,7 @@
       <c r="AY36" s="2"/>
       <c r="BO36" s="3"/>
     </row>
-    <row r="37" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3344,7 +3344,7 @@
       <c r="AZ37" s="2"/>
       <c r="BP37" s="3"/>
     </row>
-    <row r="38" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3360,7 +3360,7 @@
       <c r="BA38" s="2"/>
       <c r="BQ38" s="3"/>
     </row>
-    <row r="39" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3376,7 +3376,7 @@
       <c r="BB39" s="2"/>
       <c r="BR39" s="3"/>
     </row>
-    <row r="40" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3392,7 +3392,7 @@
       <c r="BC40" s="2"/>
       <c r="BS40" s="3"/>
     </row>
-    <row r="41" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3408,7 +3408,7 @@
       <c r="BD41" s="2"/>
       <c r="BT41" s="3"/>
     </row>
-    <row r="42" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3424,7 +3424,7 @@
       <c r="BE42" s="2"/>
       <c r="BU42" s="3"/>
     </row>
-    <row r="43" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3440,7 +3440,7 @@
       <c r="BF43" s="2"/>
       <c r="BV43" s="3"/>
     </row>
-    <row r="44" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3456,7 +3456,7 @@
       <c r="BG44" s="2"/>
       <c r="BW44" s="3"/>
     </row>
-    <row r="45" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3472,7 +3472,7 @@
       <c r="BH45" s="2"/>
       <c r="BX45" s="3"/>
     </row>
-    <row r="46" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3488,7 +3488,7 @@
       <c r="BI46" s="2"/>
       <c r="BY46" s="3"/>
     </row>
-    <row r="47" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3504,7 +3504,7 @@
       <c r="BJ47" s="2"/>
       <c r="BZ47" s="3"/>
     </row>
-    <row r="48" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3520,7 +3520,7 @@
       <c r="BK48" s="2"/>
       <c r="CA48" s="3"/>
     </row>
-    <row r="49" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3536,7 +3536,7 @@
       <c r="BL49" s="2"/>
       <c r="CB49" s="3"/>
     </row>
-    <row r="50" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3552,7 +3552,7 @@
       <c r="BM50" s="2"/>
       <c r="CC50" s="3"/>
     </row>
-    <row r="51" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3568,7 +3568,7 @@
       <c r="BN51" s="2"/>
       <c r="CD51" s="3"/>
     </row>
-    <row r="52" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -3584,7 +3584,7 @@
       <c r="BO52" s="2"/>
       <c r="CE52" s="3"/>
     </row>
-    <row r="53" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -3600,7 +3600,7 @@
       <c r="BP53" s="2"/>
       <c r="CF53" s="3"/>
     </row>
-    <row r="54" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -3616,7 +3616,7 @@
       <c r="BQ54" s="2"/>
       <c r="CG54" s="3"/>
     </row>
-    <row r="55" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -3632,7 +3632,7 @@
       <c r="BR55" s="2"/>
       <c r="CH55" s="3"/>
     </row>
-    <row r="56" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -3648,7 +3648,7 @@
       <c r="BS56" s="2"/>
       <c r="CI56" s="3"/>
     </row>
-    <row r="57" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -3664,7 +3664,7 @@
       <c r="BT57" s="2"/>
       <c r="CJ57" s="3"/>
     </row>
-    <row r="58" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -3680,7 +3680,7 @@
       <c r="BU58" s="2"/>
       <c r="CK58" s="3"/>
     </row>
-    <row r="59" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -3696,7 +3696,7 @@
       <c r="BV59" s="2"/>
       <c r="CL59" s="3"/>
     </row>
-    <row r="60" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -3712,7 +3712,7 @@
       <c r="BW60" s="2"/>
       <c r="CM60" s="3"/>
     </row>
-    <row r="61" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -3728,7 +3728,7 @@
       <c r="BX61" s="2"/>
       <c r="CN61" s="3"/>
     </row>
-    <row r="62" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -3744,7 +3744,7 @@
       <c r="BY62" s="2"/>
       <c r="CO62" s="3"/>
     </row>
-    <row r="63" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -3760,7 +3760,7 @@
       <c r="BZ63" s="2"/>
       <c r="CP63" s="3"/>
     </row>
-    <row r="64" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:95" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -3776,7 +3776,7 @@
       <c r="CA64" s="2"/>
       <c r="CQ64" s="3"/>
     </row>
-    <row r="65" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -3792,7 +3792,7 @@
       <c r="CB65" s="2"/>
       <c r="CR65" s="3"/>
     </row>
-    <row r="66" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -3808,7 +3808,7 @@
       <c r="CC66" s="2"/>
       <c r="CS66" s="3"/>
     </row>
-    <row r="67" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -3824,7 +3824,7 @@
       <c r="CD67" s="2"/>
       <c r="CT67" s="3"/>
     </row>
-    <row r="68" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -3840,7 +3840,7 @@
       <c r="CE68" s="2"/>
       <c r="CU68" s="3"/>
     </row>
-    <row r="69" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -3856,7 +3856,7 @@
       <c r="CF69" s="2"/>
       <c r="CV69" s="3"/>
     </row>
-    <row r="70" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -3872,7 +3872,7 @@
       <c r="CG70" s="2"/>
       <c r="CW70" s="3"/>
     </row>
-    <row r="71" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -3888,7 +3888,7 @@
       <c r="CH71" s="2"/>
       <c r="CX71" s="3"/>
     </row>
-    <row r="72" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -3904,7 +3904,7 @@
       <c r="CI72" s="2"/>
       <c r="CY72" s="3"/>
     </row>
-    <row r="73" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -3920,7 +3920,7 @@
       <c r="CJ73" s="2"/>
       <c r="CZ73" s="3"/>
     </row>
-    <row r="74" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -3936,7 +3936,7 @@
       <c r="CK74" s="2"/>
       <c r="DA74" s="3"/>
     </row>
-    <row r="75" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -3952,7 +3952,7 @@
       <c r="CL75" s="2"/>
       <c r="DB75" s="3"/>
     </row>
-    <row r="76" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -3968,311 +3968,311 @@
       <c r="CM76" s="2"/>
       <c r="DC76" s="3"/>
     </row>
-    <row r="77" spans="1:107" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:107" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:J2 Q2 C3 J3 R3 F5:M5 T5 F6:N6 U6 G7:O7 V7 H8:P8 W8 I9:Q9 X9 J10:R10 Y10 K11:S11 Z11 L12:T12 AA12 M13:U13 AB13 N14:V14 AC14 O15:W15 AD15 P16:X16 AE16 Q17:Y17 AF17 R18:Z18 AG18 S19:AA19 AH19 T20:AB20 AI20 U21:AC21 AJ21">
-    <cfRule type="expression" dxfId="70" priority="99">
+    <cfRule type="expression" dxfId="60" priority="99">
       <formula>OR(B$1=$C2+0, B$1=$C2+1, B$1=$C2+3, B$1=$C2+7+$A$4, B$1=$C2+15, B$1=$C2+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 H3:I3 L3 E4 K4 S4">
-    <cfRule type="expression" dxfId="69" priority="139">
+    <cfRule type="expression" dxfId="59" priority="139">
       <formula>OR(D$1=#REF!+0, D$1=#REF!+1, D$1=#REF!+3, D$1=#REF!+7+$A$4, D$1=#REF!+15, D$1=#REF!+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4 F4 H4:I4">
-    <cfRule type="expression" dxfId="68" priority="136">
+    <cfRule type="expression" dxfId="58" priority="136">
       <formula>OR(D$1=$C3+0, D$1=$C3+1, D$1=$C3+3, D$1=$C3+7+$A$4, D$1=$C3+15, D$1=$C3+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="67" priority="142">
+    <cfRule type="expression" dxfId="57" priority="142">
       <formula>OR(E$1=$C6+0, E$1=$C6+1, E$1=$C6+3, E$1=$C6+7+$A$4, E$1=$C6+15, E$1=$C6+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="expression" dxfId="66" priority="182">
+    <cfRule type="expression" dxfId="56" priority="182">
       <formula>OR(G$1=#REF!+0, G$1=#REF!+1, G$1=#REF!+3, G$1=#REF!+7+$A$4, G$1=#REF!+15, G$1=#REF!+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="65" priority="56">
+    <cfRule type="expression" dxfId="55" priority="56">
       <formula>OR(H$1=#REF!+0, H$1=#REF!+1, H$1=#REF!+3, H$1=#REF!+7+$A$4, H$1=#REF!+15, H$1=#REF!+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22:AD22 AK22">
-    <cfRule type="expression" dxfId="64" priority="55">
+    <cfRule type="expression" dxfId="54" priority="55">
       <formula>OR(V$1=$C22+0, V$1=$C22+1, V$1=$C22+3, V$1=$C22+7+$A$4, V$1=$C22+15, V$1=$C22+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W23:AE23 AL23">
-    <cfRule type="expression" dxfId="63" priority="54">
+    <cfRule type="expression" dxfId="53" priority="54">
       <formula>OR(W$1=$C23+0, W$1=$C23+1, W$1=$C23+3, W$1=$C23+7+$A$4, W$1=$C23+15, W$1=$C23+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X24:AF24 AM24">
-    <cfRule type="expression" dxfId="62" priority="53">
+    <cfRule type="expression" dxfId="52" priority="53">
       <formula>OR(X$1=$C24+0, X$1=$C24+1, X$1=$C24+3, X$1=$C24+7+$A$4, X$1=$C24+15, X$1=$C24+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y25:AG25 AN25">
-    <cfRule type="expression" dxfId="61" priority="52">
+    <cfRule type="expression" dxfId="51" priority="52">
       <formula>OR(Y$1=$C25+0, Y$1=$C25+1, Y$1=$C25+3, Y$1=$C25+7+$A$4, Y$1=$C25+15, Y$1=$C25+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z26:AH26 AO26">
-    <cfRule type="expression" dxfId="60" priority="51">
+    <cfRule type="expression" dxfId="50" priority="51">
       <formula>OR(Z$1=$C26+0, Z$1=$C26+1, Z$1=$C26+3, Z$1=$C26+7+$A$4, Z$1=$C26+15, Z$1=$C26+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA27:AI27 AP27">
-    <cfRule type="expression" dxfId="59" priority="50">
+    <cfRule type="expression" dxfId="49" priority="50">
       <formula>OR(AA$1=$C27+0, AA$1=$C27+1, AA$1=$C27+3, AA$1=$C27+7+$A$4, AA$1=$C27+15, AA$1=$C27+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB28:AJ28 AQ28">
-    <cfRule type="expression" dxfId="58" priority="49">
+    <cfRule type="expression" dxfId="48" priority="49">
       <formula>OR(AB$1=$C28+0, AB$1=$C28+1, AB$1=$C28+3, AB$1=$C28+7+$A$4, AB$1=$C28+15, AB$1=$C28+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC29:AK29 AR29">
-    <cfRule type="expression" dxfId="57" priority="48">
+    <cfRule type="expression" dxfId="47" priority="48">
       <formula>OR(AC$1=$C29+0, AC$1=$C29+1, AC$1=$C29+3, AC$1=$C29+7+$A$4, AC$1=$C29+15, AC$1=$C29+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD30:AL30 AS30">
-    <cfRule type="expression" dxfId="56" priority="47">
+    <cfRule type="expression" dxfId="46" priority="47">
       <formula>OR(AD$1=$C30+0, AD$1=$C30+1, AD$1=$C30+3, AD$1=$C30+7+$A$4, AD$1=$C30+15, AD$1=$C30+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE31:AM31 AT31">
-    <cfRule type="expression" dxfId="55" priority="46">
+    <cfRule type="expression" dxfId="45" priority="46">
       <formula>OR(AE$1=$C31+0, AE$1=$C31+1, AE$1=$C31+3, AE$1=$C31+7+$A$4, AE$1=$C31+15, AE$1=$C31+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF32:AN32 AU32">
-    <cfRule type="expression" dxfId="54" priority="45">
+    <cfRule type="expression" dxfId="44" priority="45">
       <formula>OR(AF$1=$C32+0, AF$1=$C32+1, AF$1=$C32+3, AF$1=$C32+7+$A$4, AF$1=$C32+15, AF$1=$C32+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG33:AO33 AV33">
-    <cfRule type="expression" dxfId="53" priority="44">
+    <cfRule type="expression" dxfId="43" priority="44">
       <formula>OR(AG$1=$C33+0, AG$1=$C33+1, AG$1=$C33+3, AG$1=$C33+7+$A$4, AG$1=$C33+15, AG$1=$C33+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH34:AP34 AW34">
-    <cfRule type="expression" dxfId="52" priority="43">
+    <cfRule type="expression" dxfId="42" priority="43">
       <formula>OR(AH$1=$C34+0, AH$1=$C34+1, AH$1=$C34+3, AH$1=$C34+7+$A$4, AH$1=$C34+15, AH$1=$C34+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI35:AQ35 AX35">
-    <cfRule type="expression" dxfId="51" priority="42">
+    <cfRule type="expression" dxfId="41" priority="42">
       <formula>OR(AI$1=$C35+0, AI$1=$C35+1, AI$1=$C35+3, AI$1=$C35+7+$A$4, AI$1=$C35+15, AI$1=$C35+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ36:AR36 AY36">
-    <cfRule type="expression" dxfId="50" priority="41">
+    <cfRule type="expression" dxfId="40" priority="41">
       <formula>OR(AJ$1=$C36+0, AJ$1=$C36+1, AJ$1=$C36+3, AJ$1=$C36+7+$A$4, AJ$1=$C36+15, AJ$1=$C36+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK37:AS37 AZ37">
-    <cfRule type="expression" dxfId="49" priority="40">
+    <cfRule type="expression" dxfId="39" priority="40">
       <formula>OR(AK$1=$C37+0, AK$1=$C37+1, AK$1=$C37+3, AK$1=$C37+7+$A$4, AK$1=$C37+15, AK$1=$C37+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL38:AT38 BA38">
-    <cfRule type="expression" dxfId="48" priority="39">
+    <cfRule type="expression" dxfId="38" priority="39">
       <formula>OR(AL$1=$C38+0, AL$1=$C38+1, AL$1=$C38+3, AL$1=$C38+7+$A$4, AL$1=$C38+15, AL$1=$C38+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM39:AU39 BB39">
-    <cfRule type="expression" dxfId="47" priority="38">
+    <cfRule type="expression" dxfId="37" priority="38">
       <formula>OR(AM$1=$C39+0, AM$1=$C39+1, AM$1=$C39+3, AM$1=$C39+7+$A$4, AM$1=$C39+15, AM$1=$C39+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN40:AV40 BC40">
-    <cfRule type="expression" dxfId="46" priority="37">
+    <cfRule type="expression" dxfId="36" priority="37">
       <formula>OR(AN$1=$C40+0, AN$1=$C40+1, AN$1=$C40+3, AN$1=$C40+7+$A$4, AN$1=$C40+15, AN$1=$C40+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO41:AW41 BD41">
-    <cfRule type="expression" dxfId="45" priority="36">
+    <cfRule type="expression" dxfId="35" priority="36">
       <formula>OR(AO$1=$C41+0, AO$1=$C41+1, AO$1=$C41+3, AO$1=$C41+7+$A$4, AO$1=$C41+15, AO$1=$C41+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP42:AX42 BE42">
-    <cfRule type="expression" dxfId="44" priority="35">
+    <cfRule type="expression" dxfId="34" priority="35">
       <formula>OR(AP$1=$C42+0, AP$1=$C42+1, AP$1=$C42+3, AP$1=$C42+7+$A$4, AP$1=$C42+15, AP$1=$C42+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ43:AY43 BF43">
-    <cfRule type="expression" dxfId="43" priority="34">
+    <cfRule type="expression" dxfId="33" priority="34">
       <formula>OR(AQ$1=$C43+0, AQ$1=$C43+1, AQ$1=$C43+3, AQ$1=$C43+7+$A$4, AQ$1=$C43+15, AQ$1=$C43+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR44:AZ44 BG44">
-    <cfRule type="expression" dxfId="42" priority="33">
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>OR(AR$1=$C44+0, AR$1=$C44+1, AR$1=$C44+3, AR$1=$C44+7+$A$4, AR$1=$C44+15, AR$1=$C44+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS45:BA45 BH45">
-    <cfRule type="expression" dxfId="41" priority="32">
+    <cfRule type="expression" dxfId="31" priority="32">
       <formula>OR(AS$1=$C45+0, AS$1=$C45+1, AS$1=$C45+3, AS$1=$C45+7+$A$4, AS$1=$C45+15, AS$1=$C45+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT46:BB46 BI46">
-    <cfRule type="expression" dxfId="40" priority="31">
+    <cfRule type="expression" dxfId="30" priority="31">
       <formula>OR(AT$1=$C46+0, AT$1=$C46+1, AT$1=$C46+3, AT$1=$C46+7+$A$4, AT$1=$C46+15, AT$1=$C46+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:BC47 BJ47">
-    <cfRule type="expression" dxfId="39" priority="30">
+    <cfRule type="expression" dxfId="29" priority="30">
       <formula>OR(AU$1=$C47+0, AU$1=$C47+1, AU$1=$C47+3, AU$1=$C47+7+$A$4, AU$1=$C47+15, AU$1=$C47+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV48:BD48 BK48">
-    <cfRule type="expression" dxfId="38" priority="29">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>OR(AV$1=$C48+0, AV$1=$C48+1, AV$1=$C48+3, AV$1=$C48+7+$A$4, AV$1=$C48+15, AV$1=$C48+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW49:BE49 BL49">
-    <cfRule type="expression" dxfId="37" priority="28">
+    <cfRule type="expression" dxfId="27" priority="28">
       <formula>OR(AW$1=$C49+0, AW$1=$C49+1, AW$1=$C49+3, AW$1=$C49+7+$A$4, AW$1=$C49+15, AW$1=$C49+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX50:BF50 BM50">
-    <cfRule type="expression" dxfId="36" priority="27">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>OR(AX$1=$C50+0, AX$1=$C50+1, AX$1=$C50+3, AX$1=$C50+7+$A$4, AX$1=$C50+15, AX$1=$C50+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY51:BG51 BN51">
-    <cfRule type="expression" dxfId="35" priority="26">
+    <cfRule type="expression" dxfId="25" priority="26">
       <formula>OR(AY$1=$C51+0, AY$1=$C51+1, AY$1=$C51+3, AY$1=$C51+7+$A$4, AY$1=$C51+15, AY$1=$C51+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ52:BH52 BO52">
-    <cfRule type="expression" dxfId="34" priority="25">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>OR(AZ$1=$C52+0, AZ$1=$C52+1, AZ$1=$C52+3, AZ$1=$C52+7+$A$4, AZ$1=$C52+15, AZ$1=$C52+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA53:BI53 BP53">
-    <cfRule type="expression" dxfId="33" priority="24">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>OR(BA$1=$C53+0, BA$1=$C53+1, BA$1=$C53+3, BA$1=$C53+7+$A$4, BA$1=$C53+15, BA$1=$C53+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB54:BJ54 BQ54">
-    <cfRule type="expression" dxfId="32" priority="23">
+    <cfRule type="expression" dxfId="22" priority="23">
       <formula>OR(BB$1=$C54+0, BB$1=$C54+1, BB$1=$C54+3, BB$1=$C54+7+$A$4, BB$1=$C54+15, BB$1=$C54+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC55:BK55 BR55">
-    <cfRule type="expression" dxfId="31" priority="22">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>OR(BC$1=$C55+0, BC$1=$C55+1, BC$1=$C55+3, BC$1=$C55+7+$A$4, BC$1=$C55+15, BC$1=$C55+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD56:BL56 BS56">
-    <cfRule type="expression" dxfId="30" priority="21">
+    <cfRule type="expression" dxfId="20" priority="21">
       <formula>OR(BD$1=$C56+0, BD$1=$C56+1, BD$1=$C56+3, BD$1=$C56+7+$A$4, BD$1=$C56+15, BD$1=$C56+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE57:BM57 BT57">
-    <cfRule type="expression" dxfId="29" priority="20">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>OR(BE$1=$C57+0, BE$1=$C57+1, BE$1=$C57+3, BE$1=$C57+7+$A$4, BE$1=$C57+15, BE$1=$C57+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF58:BN58 BU58">
-    <cfRule type="expression" dxfId="28" priority="19">
+    <cfRule type="expression" dxfId="18" priority="19">
       <formula>OR(BF$1=$C58+0, BF$1=$C58+1, BF$1=$C58+3, BF$1=$C58+7+$A$4, BF$1=$C58+15, BF$1=$C58+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG59:BO59 BV59">
-    <cfRule type="expression" dxfId="27" priority="18">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>OR(BG$1=$C59+0, BG$1=$C59+1, BG$1=$C59+3, BG$1=$C59+7+$A$4, BG$1=$C59+15, BG$1=$C59+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH60:BP60 BW60">
-    <cfRule type="expression" dxfId="26" priority="17">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>OR(BH$1=$C60+0, BH$1=$C60+1, BH$1=$C60+3, BH$1=$C60+7+$A$4, BH$1=$C60+15, BH$1=$C60+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI61:BQ61 BX61">
-    <cfRule type="expression" dxfId="25" priority="16">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>OR(BI$1=$C61+0, BI$1=$C61+1, BI$1=$C61+3, BI$1=$C61+7+$A$4, BI$1=$C61+15, BI$1=$C61+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ62:BR62 BY62">
-    <cfRule type="expression" dxfId="24" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>OR(BJ$1=$C62+0, BJ$1=$C62+1, BJ$1=$C62+3, BJ$1=$C62+7+$A$4, BJ$1=$C62+15, BJ$1=$C62+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK63:BS63 BZ63">
-    <cfRule type="expression" dxfId="23" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>OR(BK$1=$C63+0, BK$1=$C63+1, BK$1=$C63+3, BK$1=$C63+7+$A$4, BK$1=$C63+15, BK$1=$C63+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL64:BT64 CA64">
-    <cfRule type="expression" dxfId="22" priority="13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>OR(BL$1=$C64+0, BL$1=$C64+1, BL$1=$C64+3, BL$1=$C64+7+$A$4, BL$1=$C64+15, BL$1=$C64+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM65:BU65 CB65">
-    <cfRule type="expression" dxfId="21" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>OR(BM$1=$C65+0, BM$1=$C65+1, BM$1=$C65+3, BM$1=$C65+7+$A$4, BM$1=$C65+15, BM$1=$C65+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN66:BV66 CC66">
-    <cfRule type="expression" dxfId="20" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>OR(BN$1=$C66+0, BN$1=$C66+1, BN$1=$C66+3, BN$1=$C66+7+$A$4, BN$1=$C66+15, BN$1=$C66+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO67:BW67 CD67">
-    <cfRule type="expression" dxfId="19" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>OR(BO$1=$C67+0, BO$1=$C67+1, BO$1=$C67+3, BO$1=$C67+7+$A$4, BO$1=$C67+15, BO$1=$C67+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP68:BX68 CE68">
-    <cfRule type="expression" dxfId="18" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>OR(BP$1=$C68+0, BP$1=$C68+1, BP$1=$C68+3, BP$1=$C68+7+$A$4, BP$1=$C68+15, BP$1=$C68+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ69:BY69 CF69">
-    <cfRule type="expression" dxfId="17" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>OR(BQ$1=$C69+0, BQ$1=$C69+1, BQ$1=$C69+3, BQ$1=$C69+7+$A$4, BQ$1=$C69+15, BQ$1=$C69+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR70:BZ70 CG70">
-    <cfRule type="expression" dxfId="16" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>OR(BR$1=$C70+0, BR$1=$C70+1, BR$1=$C70+3, BR$1=$C70+7+$A$4, BR$1=$C70+15, BR$1=$C70+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS71:CA71 CH71">
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>OR(BS$1=$C71+0, BS$1=$C71+1, BS$1=$C71+3, BS$1=$C71+7+$A$4, BS$1=$C71+15, BS$1=$C71+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT72:CB72 CI72">
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>OR(BT$1=$C72+0, BT$1=$C72+1, BT$1=$C72+3, BT$1=$C72+7+$A$4, BT$1=$C72+15, BT$1=$C72+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU73:CC73 CJ73">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>OR(BU$1=$C73+0, BU$1=$C73+1, BU$1=$C73+3, BU$1=$C73+7+$A$4, BU$1=$C73+15, BU$1=$C73+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV74:CD74 CK74">
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>OR(BV$1=$C74+0, BV$1=$C74+1, BV$1=$C74+3, BV$1=$C74+7+$A$4, BV$1=$C74+15, BV$1=$C74+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW75:CE75 CL75">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>OR(BW$1=$C75+0, BW$1=$C75+1, BW$1=$C75+3, BW$1=$C75+7+$A$4, BW$1=$C75+15, BW$1=$C75+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX76:CF76 CM76">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR(BX$1=$C76+0, BX$1=$C76+1, BX$1=$C76+3, BX$1=$C76+7+$A$4, BX$1=$C76+15, BX$1=$C76+30)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3FEFE0-BF09-D345-831A-178C52A05965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5784F4A2-6329-514D-B6B2-0B5684C5DDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="35840" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1546,10 +1546,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S8" sqref="S8"/>
+      <selection pane="bottomRight" activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2829,7 +2829,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="T5" s="2"/>
+      <c r="T5" s="4"/>
       <c r="AJ5" s="3"/>
     </row>
     <row r="6" spans="1:396" x14ac:dyDescent="0.2">
@@ -2954,7 +2954,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="2"/>
+      <c r="T13" s="4"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="AB13" s="2"/>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="T17" s="2"/>
+      <c r="T17" s="4"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -3045,7 +3045,7 @@
         <v>16</v>
       </c>
       <c r="S19" s="4"/>
-      <c r="T19" s="2"/>
+      <c r="T19" s="4"/>
       <c r="V19" s="2"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
@@ -3060,7 +3060,7 @@
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="T20" s="2"/>
+      <c r="T20" s="4"/>
       <c r="U20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="1"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5784F4A2-6329-514D-B6B2-0B5684C5DDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31648B4-03AF-154C-80F8-713FE40331EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="35840" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1546,10 +1546,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V4" sqref="V4"/>
+      <selection pane="bottomRight" activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2845,7 +2845,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="U6" s="2"/>
+      <c r="U6" s="4"/>
       <c r="AK6" s="3"/>
     </row>
     <row r="7" spans="1:396" x14ac:dyDescent="0.2">
@@ -2970,7 +2970,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="2"/>
+      <c r="U14" s="4"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="AC14" s="2"/>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
-      <c r="U18" s="2"/>
+      <c r="U18" s="4"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
@@ -3061,7 +3061,7 @@
         <v>17</v>
       </c>
       <c r="T20" s="4"/>
-      <c r="U20" s="2"/>
+      <c r="U20" s="4"/>
       <c r="W20" s="2"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
@@ -3076,7 +3076,7 @@
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="U21" s="2"/>
+      <c r="U21" s="4"/>
       <c r="V21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="1"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31648B4-03AF-154C-80F8-713FE40331EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE29B25-B563-1247-BAD8-1E8FFD6B10CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="35840" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1546,10 +1546,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V3" sqref="V3"/>
+      <selection pane="bottomRight" activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2861,7 +2861,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="V7" s="2"/>
+      <c r="V7" s="4"/>
       <c r="AL7" s="3"/>
     </row>
     <row r="8" spans="1:396" x14ac:dyDescent="0.2">
@@ -2986,7 +2986,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="2"/>
+      <c r="V15" s="4"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="AD15" s="2"/>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
-      <c r="V19" s="2"/>
+      <c r="V19" s="4"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
@@ -3077,7 +3077,7 @@
         <v>18</v>
       </c>
       <c r="U21" s="4"/>
-      <c r="V21" s="2"/>
+      <c r="V21" s="4"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
@@ -3092,7 +3092,7 @@
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="V22" s="2"/>
+      <c r="V22" s="4"/>
       <c r="W22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="1"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE29B25-B563-1247-BAD8-1E8FFD6B10CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1507DEC-B672-0448-AF30-21834BFC525A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="35840" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1546,10 +1546,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W4" sqref="W4"/>
+      <selection pane="bottomRight" activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1507DEC-B672-0448-AF30-21834BFC525A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B0CECB-4FC5-9643-8F03-803E0F13E60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="35840" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11860" yWindow="680" windowWidth="35840" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1546,10 +1546,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X6" sqref="X6"/>
+      <selection pane="bottomRight" activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2877,7 +2877,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="W8" s="2"/>
+      <c r="W8" s="4"/>
       <c r="AM8" s="3"/>
     </row>
     <row r="9" spans="1:396" x14ac:dyDescent="0.2">
@@ -3002,7 +3002,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-      <c r="W16" s="2"/>
+      <c r="W16" s="4"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="AE16" s="2"/>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
-      <c r="W20" s="2"/>
+      <c r="W20" s="4"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
@@ -3093,7 +3093,7 @@
         <v>20</v>
       </c>
       <c r="V22" s="4"/>
-      <c r="W22" s="2"/>
+      <c r="W22" s="4"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
@@ -3108,7 +3108,7 @@
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="W23" s="2"/>
+      <c r="W23" s="4"/>
       <c r="X23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B0CECB-4FC5-9643-8F03-803E0F13E60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD8153E-9F9C-804F-80E6-79F3D31F3A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11860" yWindow="680" windowWidth="35840" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13500" yWindow="600" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1546,10 +1546,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W10" sqref="W10"/>
+      <selection pane="bottomRight" activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2893,7 +2893,7 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="X9" s="2"/>
+      <c r="X9" s="4"/>
       <c r="AN9" s="3"/>
     </row>
     <row r="10" spans="1:396" x14ac:dyDescent="0.2">
@@ -3018,7 +3018,7 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
-      <c r="X17" s="2"/>
+      <c r="X17" s="4"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AF17" s="2"/>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
-      <c r="X21" s="2"/>
+      <c r="X21" s="4"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
@@ -3109,7 +3109,7 @@
         <v>21</v>
       </c>
       <c r="W23" s="4"/>
-      <c r="X23" s="2"/>
+      <c r="X23" s="4"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
@@ -3124,7 +3124,7 @@
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="X24" s="2"/>
+      <c r="X24" s="4"/>
       <c r="Y24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="1"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD8153E-9F9C-804F-80E6-79F3D31F3A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709FC4A8-B831-E244-A43E-D4E290A248A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13500" yWindow="600" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1549,7 +1549,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X10" sqref="X10"/>
+      <selection pane="bottomRight" activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709FC4A8-B831-E244-A43E-D4E290A248A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F700426-C5BC-6845-A3FA-F615A870B833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12060" yWindow="740" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1546,10 +1546,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z14" sqref="Z14"/>
+      <selection pane="bottomRight" activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2909,7 +2909,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-      <c r="Y10" s="2"/>
+      <c r="Y10" s="4"/>
       <c r="AO10" s="3"/>
     </row>
     <row r="11" spans="1:396" x14ac:dyDescent="0.2">
@@ -3034,7 +3034,7 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
-      <c r="Y18" s="2"/>
+      <c r="Y18" s="4"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AG18" s="2"/>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
-      <c r="Y22" s="2"/>
+      <c r="Y22" s="4"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
@@ -3125,7 +3125,7 @@
         <v>22</v>
       </c>
       <c r="X24" s="4"/>
-      <c r="Y24" s="2"/>
+      <c r="Y24" s="4"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
@@ -3140,7 +3140,7 @@
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="Y25" s="2"/>
+      <c r="Y25" s="4"/>
       <c r="Z25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="1"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F700426-C5BC-6845-A3FA-F615A870B833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A27B63D-D891-3040-BC5F-ED188FBD9E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="740" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1546,10 +1546,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y12" sqref="Y12"/>
+      <selection pane="bottomRight" activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A27B63D-D891-3040-BC5F-ED188FBD9E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68656D91-9224-AC44-80C2-F4DB5FD67647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11940" yWindow="1100" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1546,10 +1546,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA6" sqref="AA6"/>
+      <selection pane="bottomRight" activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2925,7 +2925,7 @@
       <c r="R11" s="4"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="Z11" s="2"/>
+      <c r="Z11" s="4"/>
       <c r="AP11" s="3"/>
     </row>
     <row r="12" spans="1:396" x14ac:dyDescent="0.2">
@@ -3050,7 +3050,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
-      <c r="Z19" s="2"/>
+      <c r="Z19" s="4"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AH19" s="2"/>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
-      <c r="Z23" s="2"/>
+      <c r="Z23" s="4"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
@@ -3141,7 +3141,7 @@
         <v>23</v>
       </c>
       <c r="Y25" s="4"/>
-      <c r="Z25" s="2"/>
+      <c r="Z25" s="4"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
@@ -3156,7 +3156,7 @@
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="Z26" s="2"/>
+      <c r="Z26" s="4"/>
       <c r="AA26" s="2"/>
       <c r="AC26" s="2"/>
       <c r="AD26" s="1"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68656D91-9224-AC44-80C2-F4DB5FD67647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3075A1-013D-1947-AE4A-C7A75404F356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11940" yWindow="1100" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1546,10 +1546,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z6" sqref="Z6"/>
+      <selection pane="bottomRight" activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3075A1-013D-1947-AE4A-C7A75404F356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FCACFC-3C7E-3B4D-8927-7E58DC71E25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1546,10 +1546,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB17" sqref="AB17"/>
+      <selection pane="bottomRight" activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2941,7 +2941,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
-      <c r="AA12" s="2"/>
+      <c r="AA12" s="4"/>
       <c r="AQ12" s="3"/>
     </row>
     <row r="13" spans="1:396" x14ac:dyDescent="0.2">
@@ -3066,7 +3066,7 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="2"/>
+      <c r="AA20" s="4"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
       <c r="AI20" s="2"/>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
-      <c r="AA24" s="2"/>
+      <c r="AA24" s="4"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
@@ -3157,7 +3157,7 @@
         <v>24</v>
       </c>
       <c r="Z26" s="4"/>
-      <c r="AA26" s="2"/>
+      <c r="AA26" s="4"/>
       <c r="AC26" s="2"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
@@ -3172,7 +3172,7 @@
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="AA27" s="2"/>
+      <c r="AA27" s="4"/>
       <c r="AB27" s="2"/>
       <c r="AD27" s="2"/>
       <c r="AE27" s="1"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FCACFC-3C7E-3B4D-8927-7E58DC71E25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AD171E-826F-B84B-A00F-2C152B5006B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13020" yWindow="840" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1546,10 +1546,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AB6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA9" sqref="AA9"/>
+      <selection pane="bottomRight" activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2957,7 +2957,7 @@
       <c r="T13" s="4"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="AB13" s="2"/>
+      <c r="AB13" s="4"/>
       <c r="AR13" s="3"/>
     </row>
     <row r="14" spans="1:396" x14ac:dyDescent="0.2">
@@ -3082,7 +3082,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
-      <c r="AB21" s="2"/>
+      <c r="AB21" s="4"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AJ21" s="2"/>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
-      <c r="AB25" s="2"/>
+      <c r="AB25" s="4"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
@@ -3173,7 +3173,7 @@
         <v>25</v>
       </c>
       <c r="AA27" s="4"/>
-      <c r="AB27" s="2"/>
+      <c r="AB27" s="4"/>
       <c r="AD27" s="2"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
@@ -3188,7 +3188,7 @@
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="AB28" s="2"/>
+      <c r="AB28" s="4"/>
       <c r="AC28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="1"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AD171E-826F-B84B-A00F-2C152B5006B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214FFF62-20C8-674E-93B9-3994F8F8E7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="840" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14000" yWindow="1440" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1546,10 +1546,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AB6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AB4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB15" sqref="AB15"/>
+      <selection pane="bottomRight" activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2973,7 +2973,7 @@
       <c r="U14" s="4"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-      <c r="AC14" s="2"/>
+      <c r="AC14" s="4"/>
       <c r="AS14" s="3"/>
     </row>
     <row r="15" spans="1:396" x14ac:dyDescent="0.2">
@@ -3098,7 +3098,7 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
-      <c r="AC22" s="2"/>
+      <c r="AC22" s="4"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AK22" s="2"/>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
-      <c r="AC26" s="2"/>
+      <c r="AC26" s="4"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
@@ -3189,7 +3189,7 @@
         <v>26</v>
       </c>
       <c r="AB28" s="4"/>
-      <c r="AC28" s="2"/>
+      <c r="AC28" s="4"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
@@ -3204,7 +3204,7 @@
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="AC29" s="2"/>
+      <c r="AC29" s="4"/>
       <c r="AD29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="1"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214FFF62-20C8-674E-93B9-3994F8F8E7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B5FC28-55E0-FA4B-B930-F8FF72861B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14000" yWindow="1440" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -344,447 +344,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="71">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -880,16 +440,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FC937411-0054-48FF-9ED3-7D1A412C47EE}" name="表1" displayName="表1" ref="A1:OF279" headerRowCount="0">
   <tableColumns count="396">
     <tableColumn id="1" xr3:uid="{FE7203C8-91AB-43B8-8CBB-4498F3A6E0B7}" name="列1" totalsRowLabel="汇总"/>
-    <tableColumn id="2" xr3:uid="{5D1E913D-2A4A-487F-A1E2-E158FD6D07B6}" name="列2" headerRowDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{D0045C32-A934-4BF8-AAF4-BC934C14506D}" name="列3" headerRowDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{26B45943-1E98-41B6-A267-5AB4B817F63B}" name="列4" headerRowDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{2B8E2687-7194-4D08-ABDE-961A131F94E6}" name="列5" headerRowDxfId="67"/>
-    <tableColumn id="6" xr3:uid="{16F1A478-FD55-486F-9226-61DC718B5364}" name="列6" headerRowDxfId="66"/>
-    <tableColumn id="7" xr3:uid="{1A2340CA-E789-4036-9092-BBD8E501362C}" name="列7" headerRowDxfId="65"/>
-    <tableColumn id="8" xr3:uid="{03DCC289-F4AB-4ABE-A71C-4A5F3720A528}" name="列8" headerRowDxfId="64"/>
-    <tableColumn id="9" xr3:uid="{EB944A80-185C-49B4-ADF0-4E0A3B2493D7}" name="列9" headerRowDxfId="63"/>
-    <tableColumn id="10" xr3:uid="{903F3695-AE15-4A62-A2E5-BA1BDEA6B2EA}" name="列10" headerRowDxfId="62"/>
-    <tableColumn id="11" xr3:uid="{685DFAAD-A488-4A1F-AA74-67579C931B19}" name="列11" headerRowDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{5D1E913D-2A4A-487F-A1E2-E158FD6D07B6}" name="列2" headerRowDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{D0045C32-A934-4BF8-AAF4-BC934C14506D}" name="列3" headerRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{26B45943-1E98-41B6-A267-5AB4B817F63B}" name="列4" headerRowDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{2B8E2687-7194-4D08-ABDE-961A131F94E6}" name="列5" headerRowDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{16F1A478-FD55-486F-9226-61DC718B5364}" name="列6" headerRowDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{1A2340CA-E789-4036-9092-BBD8E501362C}" name="列7" headerRowDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{03DCC289-F4AB-4ABE-A71C-4A5F3720A528}" name="列8" headerRowDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{EB944A80-185C-49B4-ADF0-4E0A3B2493D7}" name="列9" headerRowDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{903F3695-AE15-4A62-A2E5-BA1BDEA6B2EA}" name="列10" headerRowDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{685DFAAD-A488-4A1F-AA74-67579C931B19}" name="列11" headerRowDxfId="6"/>
     <tableColumn id="12" xr3:uid="{0535F242-16B6-4215-ABC5-2A0E0227D068}" name="列12"/>
     <tableColumn id="13" xr3:uid="{C8C2EF57-9249-45BF-9A27-92ABC4D9DB44}" name="列13"/>
     <tableColumn id="14" xr3:uid="{0A1A68BC-2E04-4F0A-8CD6-B30183A99A14}" name="列14"/>
@@ -1546,10 +1106,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AB4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AD7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC11" sqref="AC11"/>
+      <selection pane="bottomRight" activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2989,7 +2549,7 @@
       <c r="V15" s="4"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="AD15" s="2"/>
+      <c r="AD15" s="4"/>
       <c r="AT15" s="3"/>
     </row>
     <row r="16" spans="1:396" x14ac:dyDescent="0.2">
@@ -3114,7 +2674,7 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
-      <c r="AD23" s="2"/>
+      <c r="AD23" s="4"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AL23" s="2"/>
@@ -3174,7 +2734,7 @@
       </c>
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
-      <c r="AD27" s="2"/>
+      <c r="AD27" s="4"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
@@ -3205,7 +2765,7 @@
         <v>27</v>
       </c>
       <c r="AC29" s="4"/>
-      <c r="AD29" s="2"/>
+      <c r="AD29" s="4"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
@@ -3220,7 +2780,7 @@
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="AD30" s="2"/>
+      <c r="AD30" s="4"/>
       <c r="AE30" s="2"/>
       <c r="AG30" s="2"/>
       <c r="AH30" s="1"/>
@@ -3971,309 +3531,34 @@
     <row r="77" spans="1:107" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:J2 Q2 C3 J3 R3 F5:M5 T5 F6:N6 U6 G7:O7 V7 H8:P8 W8 I9:Q9 X9 J10:R10 Y10 K11:S11 Z11 L12:T12 AA12 M13:U13 AB13 N14:V14 AC14 O15:W15 AD15 P16:X16 AE16 Q17:Y17 AF17 R18:Z18 AG18 S19:AA19 AH19 T20:AB20 AI20 U21:AC21 AJ21">
-    <cfRule type="expression" dxfId="60" priority="99">
+  <conditionalFormatting sqref="B2:J2 Q2 C3 J3 R3 F5:M5 T5 F6:N6 U6 G7:O7 V7 H8:P8 W8 I9:Q9 X9 J10:R10 Y10 K11:S11 Z11 L12:T12 AA12 M13:U13 AB13 N14:V14 AC14 O15:W15 AD15 P16:X16 Q17:Y17 R18:Z18 S19:AA19 T20:AB20 U21:AC21 AE16 AF17 AG18 AH19 AI20 AJ21 V22:AD22 AK22 W23:AE23 AL23 X24:AF24 AM24 Y25:AG25 AN25 Z26:AH26 AO26 AA27:AI27 AP27 AB28:AJ28 AQ28 AC29:AK29 AR29 AD30:AL30 AS30 AE31:AM31 AT31 AF32:AN32 AU32 AG33:AO33 AV33 AH34:AP34 AW34 AI35:AQ35 AX35 AJ36:AR36 AY36 AK37:AS37 AZ37 AL38:AT38 BA38 AM39:AU39 BB39 AN40:AV40 BC40 AO41:AW41 BD41 AP42:AX42 BE42 AQ43:AY43 BF43 AR44:AZ44 BG44 AS45:BA45 BH45 AT46:BB46 BI46 AU47:BC47 BJ47 AV48:BD48 BK48 AW49:BE49 BL49 AX50:BF50 BM50 AY51:BG51 BN51 AZ52:BH52 BO52 BA53:BI53 BP53 BB54:BJ54 BQ54 BC55:BK55 BR55 BD56:BL56 BS56 BE57:BM57 BT57 BF58:BN58 BU58 BG59:BO59 BV59 BH60:BP60 BW60 BI61:BQ61 BX61 BJ62:BR62 BY62 BK63:BS63 BZ63 BL64:BT64 CA64 BM65:BU65 CB65 BN66:BV66 CC66 BO67:BW67 CD67 BP68:BX68 CE68 BQ69:BY69 CF69 BR70:BZ70 CG70 BS71:CA71 CH71 BT72:CB72 CI72 BU73:CC73 CJ73 BV74:CD74 CK74 BW75:CE75 CL75 BX76:CF76 CM76">
+    <cfRule type="expression" dxfId="5" priority="99">
       <formula>OR(B$1=$C2+0, B$1=$C2+1, B$1=$C2+3, B$1=$C2+7+$A$4, B$1=$C2+15, B$1=$C2+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 H3:I3 L3 E4 K4 S4">
-    <cfRule type="expression" dxfId="59" priority="139">
+    <cfRule type="expression" dxfId="4" priority="139">
       <formula>OR(D$1=#REF!+0, D$1=#REF!+1, D$1=#REF!+3, D$1=#REF!+7+$A$4, D$1=#REF!+15, D$1=#REF!+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4 F4 H4:I4">
-    <cfRule type="expression" dxfId="58" priority="136">
+    <cfRule type="expression" dxfId="3" priority="136">
       <formula>OR(D$1=$C3+0, D$1=$C3+1, D$1=$C3+3, D$1=$C3+7+$A$4, D$1=$C3+15, D$1=$C3+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="57" priority="142">
+    <cfRule type="expression" dxfId="2" priority="142">
       <formula>OR(E$1=$C6+0, E$1=$C6+1, E$1=$C6+3, E$1=$C6+7+$A$4, E$1=$C6+15, E$1=$C6+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="expression" dxfId="56" priority="182">
+    <cfRule type="expression" dxfId="1" priority="182">
       <formula>OR(G$1=#REF!+0, G$1=#REF!+1, G$1=#REF!+3, G$1=#REF!+7+$A$4, G$1=#REF!+15, G$1=#REF!+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="55" priority="56">
+    <cfRule type="expression" dxfId="0" priority="56">
       <formula>OR(H$1=#REF!+0, H$1=#REF!+1, H$1=#REF!+3, H$1=#REF!+7+$A$4, H$1=#REF!+15, H$1=#REF!+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V22:AD22 AK22">
-    <cfRule type="expression" dxfId="54" priority="55">
-      <formula>OR(V$1=$C22+0, V$1=$C22+1, V$1=$C22+3, V$1=$C22+7+$A$4, V$1=$C22+15, V$1=$C22+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W23:AE23 AL23">
-    <cfRule type="expression" dxfId="53" priority="54">
-      <formula>OR(W$1=$C23+0, W$1=$C23+1, W$1=$C23+3, W$1=$C23+7+$A$4, W$1=$C23+15, W$1=$C23+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X24:AF24 AM24">
-    <cfRule type="expression" dxfId="52" priority="53">
-      <formula>OR(X$1=$C24+0, X$1=$C24+1, X$1=$C24+3, X$1=$C24+7+$A$4, X$1=$C24+15, X$1=$C24+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y25:AG25 AN25">
-    <cfRule type="expression" dxfId="51" priority="52">
-      <formula>OR(Y$1=$C25+0, Y$1=$C25+1, Y$1=$C25+3, Y$1=$C25+7+$A$4, Y$1=$C25+15, Y$1=$C25+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z26:AH26 AO26">
-    <cfRule type="expression" dxfId="50" priority="51">
-      <formula>OR(Z$1=$C26+0, Z$1=$C26+1, Z$1=$C26+3, Z$1=$C26+7+$A$4, Z$1=$C26+15, Z$1=$C26+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA27:AI27 AP27">
-    <cfRule type="expression" dxfId="49" priority="50">
-      <formula>OR(AA$1=$C27+0, AA$1=$C27+1, AA$1=$C27+3, AA$1=$C27+7+$A$4, AA$1=$C27+15, AA$1=$C27+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB28:AJ28 AQ28">
-    <cfRule type="expression" dxfId="48" priority="49">
-      <formula>OR(AB$1=$C28+0, AB$1=$C28+1, AB$1=$C28+3, AB$1=$C28+7+$A$4, AB$1=$C28+15, AB$1=$C28+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC29:AK29 AR29">
-    <cfRule type="expression" dxfId="47" priority="48">
-      <formula>OR(AC$1=$C29+0, AC$1=$C29+1, AC$1=$C29+3, AC$1=$C29+7+$A$4, AC$1=$C29+15, AC$1=$C29+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD30:AL30 AS30">
-    <cfRule type="expression" dxfId="46" priority="47">
-      <formula>OR(AD$1=$C30+0, AD$1=$C30+1, AD$1=$C30+3, AD$1=$C30+7+$A$4, AD$1=$C30+15, AD$1=$C30+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE31:AM31 AT31">
-    <cfRule type="expression" dxfId="45" priority="46">
-      <formula>OR(AE$1=$C31+0, AE$1=$C31+1, AE$1=$C31+3, AE$1=$C31+7+$A$4, AE$1=$C31+15, AE$1=$C31+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF32:AN32 AU32">
-    <cfRule type="expression" dxfId="44" priority="45">
-      <formula>OR(AF$1=$C32+0, AF$1=$C32+1, AF$1=$C32+3, AF$1=$C32+7+$A$4, AF$1=$C32+15, AF$1=$C32+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG33:AO33 AV33">
-    <cfRule type="expression" dxfId="43" priority="44">
-      <formula>OR(AG$1=$C33+0, AG$1=$C33+1, AG$1=$C33+3, AG$1=$C33+7+$A$4, AG$1=$C33+15, AG$1=$C33+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH34:AP34 AW34">
-    <cfRule type="expression" dxfId="42" priority="43">
-      <formula>OR(AH$1=$C34+0, AH$1=$C34+1, AH$1=$C34+3, AH$1=$C34+7+$A$4, AH$1=$C34+15, AH$1=$C34+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI35:AQ35 AX35">
-    <cfRule type="expression" dxfId="41" priority="42">
-      <formula>OR(AI$1=$C35+0, AI$1=$C35+1, AI$1=$C35+3, AI$1=$C35+7+$A$4, AI$1=$C35+15, AI$1=$C35+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ36:AR36 AY36">
-    <cfRule type="expression" dxfId="40" priority="41">
-      <formula>OR(AJ$1=$C36+0, AJ$1=$C36+1, AJ$1=$C36+3, AJ$1=$C36+7+$A$4, AJ$1=$C36+15, AJ$1=$C36+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK37:AS37 AZ37">
-    <cfRule type="expression" dxfId="39" priority="40">
-      <formula>OR(AK$1=$C37+0, AK$1=$C37+1, AK$1=$C37+3, AK$1=$C37+7+$A$4, AK$1=$C37+15, AK$1=$C37+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL38:AT38 BA38">
-    <cfRule type="expression" dxfId="38" priority="39">
-      <formula>OR(AL$1=$C38+0, AL$1=$C38+1, AL$1=$C38+3, AL$1=$C38+7+$A$4, AL$1=$C38+15, AL$1=$C38+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM39:AU39 BB39">
-    <cfRule type="expression" dxfId="37" priority="38">
-      <formula>OR(AM$1=$C39+0, AM$1=$C39+1, AM$1=$C39+3, AM$1=$C39+7+$A$4, AM$1=$C39+15, AM$1=$C39+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN40:AV40 BC40">
-    <cfRule type="expression" dxfId="36" priority="37">
-      <formula>OR(AN$1=$C40+0, AN$1=$C40+1, AN$1=$C40+3, AN$1=$C40+7+$A$4, AN$1=$C40+15, AN$1=$C40+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO41:AW41 BD41">
-    <cfRule type="expression" dxfId="35" priority="36">
-      <formula>OR(AO$1=$C41+0, AO$1=$C41+1, AO$1=$C41+3, AO$1=$C41+7+$A$4, AO$1=$C41+15, AO$1=$C41+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP42:AX42 BE42">
-    <cfRule type="expression" dxfId="34" priority="35">
-      <formula>OR(AP$1=$C42+0, AP$1=$C42+1, AP$1=$C42+3, AP$1=$C42+7+$A$4, AP$1=$C42+15, AP$1=$C42+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ43:AY43 BF43">
-    <cfRule type="expression" dxfId="33" priority="34">
-      <formula>OR(AQ$1=$C43+0, AQ$1=$C43+1, AQ$1=$C43+3, AQ$1=$C43+7+$A$4, AQ$1=$C43+15, AQ$1=$C43+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR44:AZ44 BG44">
-    <cfRule type="expression" dxfId="32" priority="33">
-      <formula>OR(AR$1=$C44+0, AR$1=$C44+1, AR$1=$C44+3, AR$1=$C44+7+$A$4, AR$1=$C44+15, AR$1=$C44+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS45:BA45 BH45">
-    <cfRule type="expression" dxfId="31" priority="32">
-      <formula>OR(AS$1=$C45+0, AS$1=$C45+1, AS$1=$C45+3, AS$1=$C45+7+$A$4, AS$1=$C45+15, AS$1=$C45+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT46:BB46 BI46">
-    <cfRule type="expression" dxfId="30" priority="31">
-      <formula>OR(AT$1=$C46+0, AT$1=$C46+1, AT$1=$C46+3, AT$1=$C46+7+$A$4, AT$1=$C46+15, AT$1=$C46+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU47:BC47 BJ47">
-    <cfRule type="expression" dxfId="29" priority="30">
-      <formula>OR(AU$1=$C47+0, AU$1=$C47+1, AU$1=$C47+3, AU$1=$C47+7+$A$4, AU$1=$C47+15, AU$1=$C47+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV48:BD48 BK48">
-    <cfRule type="expression" dxfId="28" priority="29">
-      <formula>OR(AV$1=$C48+0, AV$1=$C48+1, AV$1=$C48+3, AV$1=$C48+7+$A$4, AV$1=$C48+15, AV$1=$C48+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW49:BE49 BL49">
-    <cfRule type="expression" dxfId="27" priority="28">
-      <formula>OR(AW$1=$C49+0, AW$1=$C49+1, AW$1=$C49+3, AW$1=$C49+7+$A$4, AW$1=$C49+15, AW$1=$C49+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX50:BF50 BM50">
-    <cfRule type="expression" dxfId="26" priority="27">
-      <formula>OR(AX$1=$C50+0, AX$1=$C50+1, AX$1=$C50+3, AX$1=$C50+7+$A$4, AX$1=$C50+15, AX$1=$C50+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY51:BG51 BN51">
-    <cfRule type="expression" dxfId="25" priority="26">
-      <formula>OR(AY$1=$C51+0, AY$1=$C51+1, AY$1=$C51+3, AY$1=$C51+7+$A$4, AY$1=$C51+15, AY$1=$C51+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ52:BH52 BO52">
-    <cfRule type="expression" dxfId="24" priority="25">
-      <formula>OR(AZ$1=$C52+0, AZ$1=$C52+1, AZ$1=$C52+3, AZ$1=$C52+7+$A$4, AZ$1=$C52+15, AZ$1=$C52+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA53:BI53 BP53">
-    <cfRule type="expression" dxfId="23" priority="24">
-      <formula>OR(BA$1=$C53+0, BA$1=$C53+1, BA$1=$C53+3, BA$1=$C53+7+$A$4, BA$1=$C53+15, BA$1=$C53+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB54:BJ54 BQ54">
-    <cfRule type="expression" dxfId="22" priority="23">
-      <formula>OR(BB$1=$C54+0, BB$1=$C54+1, BB$1=$C54+3, BB$1=$C54+7+$A$4, BB$1=$C54+15, BB$1=$C54+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC55:BK55 BR55">
-    <cfRule type="expression" dxfId="21" priority="22">
-      <formula>OR(BC$1=$C55+0, BC$1=$C55+1, BC$1=$C55+3, BC$1=$C55+7+$A$4, BC$1=$C55+15, BC$1=$C55+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD56:BL56 BS56">
-    <cfRule type="expression" dxfId="20" priority="21">
-      <formula>OR(BD$1=$C56+0, BD$1=$C56+1, BD$1=$C56+3, BD$1=$C56+7+$A$4, BD$1=$C56+15, BD$1=$C56+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BE57:BM57 BT57">
-    <cfRule type="expression" dxfId="19" priority="20">
-      <formula>OR(BE$1=$C57+0, BE$1=$C57+1, BE$1=$C57+3, BE$1=$C57+7+$A$4, BE$1=$C57+15, BE$1=$C57+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF58:BN58 BU58">
-    <cfRule type="expression" dxfId="18" priority="19">
-      <formula>OR(BF$1=$C58+0, BF$1=$C58+1, BF$1=$C58+3, BF$1=$C58+7+$A$4, BF$1=$C58+15, BF$1=$C58+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BG59:BO59 BV59">
-    <cfRule type="expression" dxfId="17" priority="18">
-      <formula>OR(BG$1=$C59+0, BG$1=$C59+1, BG$1=$C59+3, BG$1=$C59+7+$A$4, BG$1=$C59+15, BG$1=$C59+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH60:BP60 BW60">
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>OR(BH$1=$C60+0, BH$1=$C60+1, BH$1=$C60+3, BH$1=$C60+7+$A$4, BH$1=$C60+15, BH$1=$C60+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BI61:BQ61 BX61">
-    <cfRule type="expression" dxfId="15" priority="16">
-      <formula>OR(BI$1=$C61+0, BI$1=$C61+1, BI$1=$C61+3, BI$1=$C61+7+$A$4, BI$1=$C61+15, BI$1=$C61+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ62:BR62 BY62">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>OR(BJ$1=$C62+0, BJ$1=$C62+1, BJ$1=$C62+3, BJ$1=$C62+7+$A$4, BJ$1=$C62+15, BJ$1=$C62+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BK63:BS63 BZ63">
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>OR(BK$1=$C63+0, BK$1=$C63+1, BK$1=$C63+3, BK$1=$C63+7+$A$4, BK$1=$C63+15, BK$1=$C63+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BL64:BT64 CA64">
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>OR(BL$1=$C64+0, BL$1=$C64+1, BL$1=$C64+3, BL$1=$C64+7+$A$4, BL$1=$C64+15, BL$1=$C64+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM65:BU65 CB65">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>OR(BM$1=$C65+0, BM$1=$C65+1, BM$1=$C65+3, BM$1=$C65+7+$A$4, BM$1=$C65+15, BM$1=$C65+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN66:BV66 CC66">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>OR(BN$1=$C66+0, BN$1=$C66+1, BN$1=$C66+3, BN$1=$C66+7+$A$4, BN$1=$C66+15, BN$1=$C66+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BO67:BW67 CD67">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>OR(BO$1=$C67+0, BO$1=$C67+1, BO$1=$C67+3, BO$1=$C67+7+$A$4, BO$1=$C67+15, BO$1=$C67+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP68:BX68 CE68">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>OR(BP$1=$C68+0, BP$1=$C68+1, BP$1=$C68+3, BP$1=$C68+7+$A$4, BP$1=$C68+15, BP$1=$C68+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BQ69:BY69 CF69">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>OR(BQ$1=$C69+0, BQ$1=$C69+1, BQ$1=$C69+3, BQ$1=$C69+7+$A$4, BQ$1=$C69+15, BQ$1=$C69+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BR70:BZ70 CG70">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>OR(BR$1=$C70+0, BR$1=$C70+1, BR$1=$C70+3, BR$1=$C70+7+$A$4, BR$1=$C70+15, BR$1=$C70+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BS71:CA71 CH71">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>OR(BS$1=$C71+0, BS$1=$C71+1, BS$1=$C71+3, BS$1=$C71+7+$A$4, BS$1=$C71+15, BS$1=$C71+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BT72:CB72 CI72">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>OR(BT$1=$C72+0, BT$1=$C72+1, BT$1=$C72+3, BT$1=$C72+7+$A$4, BT$1=$C72+15, BT$1=$C72+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BU73:CC73 CJ73">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>OR(BU$1=$C73+0, BU$1=$C73+1, BU$1=$C73+3, BU$1=$C73+7+$A$4, BU$1=$C73+15, BU$1=$C73+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BV74:CD74 CK74">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>OR(BV$1=$C74+0, BV$1=$C74+1, BV$1=$C74+3, BV$1=$C74+7+$A$4, BV$1=$C74+15, BV$1=$C74+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BW75:CE75 CL75">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>OR(BW$1=$C75+0, BW$1=$C75+1, BW$1=$C75+3, BW$1=$C75+7+$A$4, BW$1=$C75+15, BW$1=$C75+30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BX76:CF76 CM76">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>OR(BX$1=$C76+0, BX$1=$C76+1, BX$1=$C76+3, BX$1=$C76+7+$A$4, BX$1=$C76+15, BX$1=$C76+30)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B5FC28-55E0-FA4B-B930-F8FF72861B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DD4509-C73E-6D49-B575-DD9E44C32917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15700" yWindow="620" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1106,10 +1106,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AD7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AE7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD12" sqref="AD12"/>
+      <selection pane="bottomRight" activeCell="AE18" sqref="AE18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2565,7 +2565,7 @@
       <c r="W16" s="4"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-      <c r="AE16" s="2"/>
+      <c r="AE16" s="4"/>
       <c r="AU16" s="3"/>
     </row>
     <row r="17" spans="1:63" x14ac:dyDescent="0.2">
@@ -2690,7 +2690,7 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
-      <c r="AE24" s="2"/>
+      <c r="AE24" s="4"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
       <c r="AM24" s="2"/>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
-      <c r="AE28" s="2"/>
+      <c r="AE28" s="4"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
@@ -2781,7 +2781,7 @@
         <v>28</v>
       </c>
       <c r="AD30" s="4"/>
-      <c r="AE30" s="2"/>
+      <c r="AE30" s="4"/>
       <c r="AG30" s="2"/>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
@@ -2796,7 +2796,7 @@
       <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="AE31" s="2"/>
+      <c r="AE31" s="4"/>
       <c r="AF31" s="2"/>
       <c r="AH31" s="2"/>
       <c r="AI31" s="1"/>
@@ -3531,7 +3531,7 @@
     <row r="77" spans="1:107" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:J2 Q2 C3 J3 R3 F5:M5 T5 F6:N6 U6 G7:O7 V7 H8:P8 W8 I9:Q9 X9 J10:R10 Y10 K11:S11 Z11 L12:T12 AA12 M13:U13 AB13 N14:V14 AC14 O15:W15 AD15 P16:X16 Q17:Y17 R18:Z18 S19:AA19 T20:AB20 U21:AC21 AE16 AF17 AG18 AH19 AI20 AJ21 V22:AD22 AK22 W23:AE23 AL23 X24:AF24 AM24 Y25:AG25 AN25 Z26:AH26 AO26 AA27:AI27 AP27 AB28:AJ28 AQ28 AC29:AK29 AR29 AD30:AL30 AS30 AE31:AM31 AT31 AF32:AN32 AU32 AG33:AO33 AV33 AH34:AP34 AW34 AI35:AQ35 AX35 AJ36:AR36 AY36 AK37:AS37 AZ37 AL38:AT38 BA38 AM39:AU39 BB39 AN40:AV40 BC40 AO41:AW41 BD41 AP42:AX42 BE42 AQ43:AY43 BF43 AR44:AZ44 BG44 AS45:BA45 BH45 AT46:BB46 BI46 AU47:BC47 BJ47 AV48:BD48 BK48 AW49:BE49 BL49 AX50:BF50 BM50 AY51:BG51 BN51 AZ52:BH52 BO52 BA53:BI53 BP53 BB54:BJ54 BQ54 BC55:BK55 BR55 BD56:BL56 BS56 BE57:BM57 BT57 BF58:BN58 BU58 BG59:BO59 BV59 BH60:BP60 BW60 BI61:BQ61 BX61 BJ62:BR62 BY62 BK63:BS63 BZ63 BL64:BT64 CA64 BM65:BU65 CB65 BN66:BV66 CC66 BO67:BW67 CD67 BP68:BX68 CE68 BQ69:BY69 CF69 BR70:BZ70 CG70 BS71:CA71 CH71 BT72:CB72 CI72 BU73:CC73 CJ73 BV74:CD74 CK74 BW75:CE75 CL75 BX76:CF76 CM76">
+  <conditionalFormatting sqref="B2:J2 Q2 C3 J3 R3 F5:M5 T5 F6:N6 U6 G7:O7 V7 H8:P8 W8 I9:Q9 X9 J10:R10 Y10 K11:S11 Z11 L12:T12 AA12 M13:U13 AB13 N14:V14 AC14 O15:W15 AD15 P16:X16 AE16 Q17:Y17 AF17 R18:Z18 AG18 S19:AA19 AH19 T20:AB20 AI20 U21:AC21 AJ21 V22:AD22 AK22 W23:AE23 AL23 X24:AF24 AM24 Y25:AG25 AN25 Z26:AH26 AO26 AA27:AI27 AP27 AB28:AJ28 AQ28 AC29:AK29 AR29 AD30:AL30 AS30 AE31:AM31 AT31 AF32:AN32 AU32 AG33:AO33 AV33 AH34:AP34 AW34 AI35:AQ35 AX35 AJ36:AR36 AY36 AK37:AS37 AZ37 AL38:AT38 BA38 AM39:AU39 BB39 AN40:AV40 BC40 AO41:AW41 BD41 AP42:AX42 BE42 AQ43:AY43 BF43 AR44:AZ44 BG44 AS45:BA45 BH45 AT46:BB46 BI46 AU47:BC47 BJ47 AV48:BD48 BK48 AW49:BE49 BL49 AX50:BF50 BM50 AY51:BG51 BN51 AZ52:BH52 BO52 BA53:BI53 BP53 BB54:BJ54 BQ54 BC55:BK55 BR55 BD56:BL56 BS56 BE57:BM57 BT57 BF58:BN58 BU58 BG59:BO59 BV59 BH60:BP60 BW60 BI61:BQ61 BX61 BJ62:BR62 BY62 BK63:BS63 BZ63 BL64:BT64 CA64 BM65:BU65 CB65 BN66:BV66 CC66 BO67:BW67 CD67 BP68:BX68 CE68 BQ69:BY69 CF69 BR70:BZ70 CG70 BS71:CA71 CH71 BT72:CB72 CI72 BU73:CC73 CJ73 BV74:CD74 CK74 BW75:CE75 CL75 BX76:CF76 CM76">
     <cfRule type="expression" dxfId="5" priority="99">
       <formula>OR(B$1=$C2+0, B$1=$C2+1, B$1=$C2+3, B$1=$C2+7+$A$4, B$1=$C2+15, B$1=$C2+30)</formula>
     </cfRule>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DD4509-C73E-6D49-B575-DD9E44C32917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD9CFDA-DE13-824A-91E3-25953B10A073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15700" yWindow="620" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1106,10 +1106,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AE7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AE19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE18" sqref="AE18"/>
+      <selection pane="bottomRight" activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2581,7 +2581,7 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
-      <c r="AF17" s="2"/>
+      <c r="AF17" s="4"/>
       <c r="AV17" s="3"/>
     </row>
     <row r="18" spans="1:63" x14ac:dyDescent="0.2">
@@ -2706,7 +2706,7 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
-      <c r="AF25" s="2"/>
+      <c r="AF25" s="4"/>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
       <c r="AN25" s="2"/>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
-      <c r="AF29" s="2"/>
+      <c r="AF29" s="4"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
@@ -2797,7 +2797,7 @@
         <v>29</v>
       </c>
       <c r="AE31" s="4"/>
-      <c r="AF31" s="2"/>
+      <c r="AF31" s="4"/>
       <c r="AH31" s="2"/>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
@@ -2812,7 +2812,7 @@
       <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="AF32" s="2"/>
+      <c r="AF32" s="4"/>
       <c r="AG32" s="2"/>
       <c r="AI32" s="2"/>
       <c r="AJ32" s="1"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD9CFDA-DE13-824A-91E3-25953B10A073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650BB31B-0E64-194E-A000-15200151DA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15700" yWindow="620" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15060" yWindow="620" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -332,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -340,6 +340,7 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1106,10 +1107,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AE19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF7" sqref="AF7"/>
+      <selection pane="bottomRight" activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2344,7 +2345,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="Q2" s="4"/>
-      <c r="AG2" s="3"/>
+      <c r="AG2" s="7"/>
     </row>
     <row r="3" spans="1:396" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -2597,7 +2598,7 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
-      <c r="AG18" s="2"/>
+      <c r="AG18" s="4"/>
       <c r="AW18" s="3"/>
     </row>
     <row r="19" spans="1:63" x14ac:dyDescent="0.2">
@@ -2722,7 +2723,7 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
-      <c r="AG26" s="2"/>
+      <c r="AG26" s="4"/>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AO26" s="2"/>
@@ -2782,7 +2783,7 @@
       </c>
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
-      <c r="AG30" s="2"/>
+      <c r="AG30" s="4"/>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
@@ -2813,7 +2814,7 @@
         <v>30</v>
       </c>
       <c r="AF32" s="4"/>
-      <c r="AG32" s="2"/>
+      <c r="AG32" s="4"/>
       <c r="AI32" s="2"/>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
@@ -2828,7 +2829,7 @@
       <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="AG33" s="2"/>
+      <c r="AG33" s="4"/>
       <c r="AH33" s="2"/>
       <c r="AJ33" s="2"/>
       <c r="AK33" s="1"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650BB31B-0E64-194E-A000-15200151DA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCDAC08-2EC4-0F48-A73F-C3D18DD8E201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15060" yWindow="620" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11900" yWindow="640" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1110,7 +1110,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG2" sqref="AG2"/>
+      <selection pane="bottomRight" activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2360,7 +2360,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="R3" s="4"/>
-      <c r="AH3" s="3"/>
+      <c r="AH3" s="7"/>
     </row>
     <row r="4" spans="1:396" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2614,7 +2614,7 @@
       <c r="Z19" s="4"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
-      <c r="AH19" s="2"/>
+      <c r="AH19" s="4"/>
       <c r="AX19" s="3"/>
     </row>
     <row r="20" spans="1:63" x14ac:dyDescent="0.2">
@@ -2739,7 +2739,7 @@
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
-      <c r="AH27" s="2"/>
+      <c r="AH27" s="4"/>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
       <c r="AP27" s="2"/>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="AE31" s="4"/>
       <c r="AF31" s="4"/>
-      <c r="AH31" s="2"/>
+      <c r="AH31" s="4"/>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
@@ -2830,7 +2830,7 @@
         <v>31</v>
       </c>
       <c r="AG33" s="4"/>
-      <c r="AH33" s="2"/>
+      <c r="AH33" s="4"/>
       <c r="AJ33" s="2"/>
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
@@ -2845,7 +2845,7 @@
       <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="AH34" s="2"/>
+      <c r="AH34" s="4"/>
       <c r="AI34" s="2"/>
       <c r="AK34" s="2"/>
       <c r="AL34" s="1"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCDAC08-2EC4-0F48-A73F-C3D18DD8E201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A6B755-4A79-F543-BB80-470EEF92A913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11900" yWindow="640" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10880" yWindow="1100" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1107,10 +1107,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH5" sqref="AH5"/>
+      <selection pane="bottomRight" activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2375,7 +2375,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="1"/>
       <c r="S4" s="4"/>
-      <c r="AI4" s="3"/>
+      <c r="AI4" s="7"/>
     </row>
     <row r="5" spans="1:396" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2630,7 +2630,7 @@
       <c r="AA20" s="4"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
-      <c r="AI20" s="2"/>
+      <c r="AI20" s="4"/>
       <c r="AY20" s="3"/>
     </row>
     <row r="21" spans="1:63" x14ac:dyDescent="0.2">
@@ -2755,7 +2755,7 @@
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
-      <c r="AI28" s="2"/>
+      <c r="AI28" s="4"/>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
       <c r="AQ28" s="2"/>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="AF32" s="4"/>
       <c r="AG32" s="4"/>
-      <c r="AI32" s="2"/>
+      <c r="AI32" s="4"/>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
@@ -2846,7 +2846,7 @@
         <v>32</v>
       </c>
       <c r="AH34" s="4"/>
-      <c r="AI34" s="2"/>
+      <c r="AI34" s="4"/>
       <c r="AK34" s="2"/>
       <c r="AL34" s="1"/>
       <c r="AM34" s="1"/>
@@ -2861,7 +2861,7 @@
       <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="AI35" s="2"/>
+      <c r="AI35" s="4"/>
       <c r="AJ35" s="2"/>
       <c r="AL35" s="2"/>
       <c r="AM35" s="1"/>
@@ -3532,7 +3532,7 @@
     <row r="77" spans="1:107" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:J2 Q2 C3 J3 R3 F5:M5 T5 F6:N6 U6 G7:O7 V7 H8:P8 W8 I9:Q9 X9 J10:R10 Y10 K11:S11 Z11 L12:T12 AA12 M13:U13 AB13 N14:V14 AC14 O15:W15 AD15 P16:X16 AE16 Q17:Y17 AF17 R18:Z18 AG18 S19:AA19 AH19 T20:AB20 AI20 U21:AC21 AJ21 V22:AD22 AK22 W23:AE23 AL23 X24:AF24 AM24 Y25:AG25 AN25 Z26:AH26 AO26 AA27:AI27 AP27 AB28:AJ28 AQ28 AC29:AK29 AR29 AD30:AL30 AS30 AE31:AM31 AT31 AF32:AN32 AU32 AG33:AO33 AV33 AH34:AP34 AW34 AI35:AQ35 AX35 AJ36:AR36 AY36 AK37:AS37 AZ37 AL38:AT38 BA38 AM39:AU39 BB39 AN40:AV40 BC40 AO41:AW41 BD41 AP42:AX42 BE42 AQ43:AY43 BF43 AR44:AZ44 BG44 AS45:BA45 BH45 AT46:BB46 BI46 AU47:BC47 BJ47 AV48:BD48 BK48 AW49:BE49 BL49 AX50:BF50 BM50 AY51:BG51 BN51 AZ52:BH52 BO52 BA53:BI53 BP53 BB54:BJ54 BQ54 BC55:BK55 BR55 BD56:BL56 BS56 BE57:BM57 BT57 BF58:BN58 BU58 BG59:BO59 BV59 BH60:BP60 BW60 BI61:BQ61 BX61 BJ62:BR62 BY62 BK63:BS63 BZ63 BL64:BT64 CA64 BM65:BU65 CB65 BN66:BV66 CC66 BO67:BW67 CD67 BP68:BX68 CE68 BQ69:BY69 CF69 BR70:BZ70 CG70 BS71:CA71 CH71 BT72:CB72 CI72 BU73:CC73 CJ73 BV74:CD74 CK74 BW75:CE75 CL75 BX76:CF76 CM76">
+  <conditionalFormatting sqref="B2:J2 Q2 C3 J3 R3 F5:M5 T5 F6:N6 U6 G7:O7 V7 H8:P8 W8 I9:Q9 X9 J10:R10 Y10 K11:S11 Z11 L12:T12 AA12 M13:U13 AB13 N14:V14 AC14 O15:W15 AD15 P16:X16 AE16 Q17:Y17 AF17 R18:Z18 AG18 S19:AA19 AH19 T20:AB20 U21:AC21 V22:AD22 W23:AE23 X24:AF24 Y25:AG25 Z26:AH26 AI20 AJ21 AK22 AL23 AM24 AN25 AO26 AA27:AI27 AP27 AB28:AJ28 AQ28 AC29:AK29 AR29 AD30:AL30 AS30 AE31:AM31 AT31 AF32:AN32 AU32 AG33:AO33 AV33 AH34:AP34 AW34 AI35:AQ35 AX35 AJ36:AR36 AY36 AK37:AS37 AZ37 AL38:AT38 BA38 AM39:AU39 BB39 AN40:AV40 BC40 AO41:AW41 BD41 AP42:AX42 BE42 AQ43:AY43 BF43 AR44:AZ44 BG44 AS45:BA45 BH45 AT46:BB46 BI46 AU47:BC47 BJ47 AV48:BD48 BK48 AW49:BE49 BL49 AX50:BF50 BM50 AY51:BG51 BN51 AZ52:BH52 BO52 BA53:BI53 BP53 BB54:BJ54 BQ54 BC55:BK55 BR55 BD56:BL56 BS56 BE57:BM57 BT57 BF58:BN58 BU58 BG59:BO59 BV59 BH60:BP60 BW60 BI61:BQ61 BX61 BJ62:BR62 BY62 BK63:BS63 BZ63 BL64:BT64 CA64 BM65:BU65 CB65 BN66:BV66 CC66 BO67:BW67 CD67 BP68:BX68 CE68 BQ69:BY69 CF69 BR70:BZ70 CG70 BS71:CA71 CH71 BT72:CB72 CI72 BU73:CC73 CJ73 BV74:CD74 CK74 BW75:CE75 CL75 BX76:CF76 CM76">
     <cfRule type="expression" dxfId="5" priority="99">
       <formula>OR(B$1=$C2+0, B$1=$C2+1, B$1=$C2+3, B$1=$C2+7+$A$4, B$1=$C2+15, B$1=$C2+30)</formula>
     </cfRule>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A6B755-4A79-F543-BB80-470EEF92A913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3BDDC4-4FD9-4148-9C22-E6963FD07911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10880" yWindow="1100" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13220" yWindow="620" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1106,11 +1106,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:OF77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="249" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI10" sqref="AI10"/>
+      <selection pane="bottomRight" activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2391,7 +2391,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="T5" s="4"/>
-      <c r="AJ5" s="3"/>
+      <c r="AJ5" s="7"/>
     </row>
     <row r="6" spans="1:396" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2646,7 +2646,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
-      <c r="AJ21" s="2"/>
+      <c r="AJ21" s="4"/>
       <c r="AZ21" s="3"/>
     </row>
     <row r="22" spans="1:63" x14ac:dyDescent="0.2">
@@ -2771,7 +2771,7 @@
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
-      <c r="AJ29" s="2"/>
+      <c r="AJ29" s="4"/>
       <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
       <c r="AR29" s="2"/>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="AG33" s="4"/>
       <c r="AH33" s="4"/>
-      <c r="AJ33" s="2"/>
+      <c r="AJ33" s="4"/>
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
       <c r="AM33" s="1"/>
@@ -2862,7 +2862,7 @@
         <v>33</v>
       </c>
       <c r="AI35" s="4"/>
-      <c r="AJ35" s="2"/>
+      <c r="AJ35" s="4"/>
       <c r="AL35" s="2"/>
       <c r="AM35" s="1"/>
       <c r="AN35" s="1"/>
@@ -2877,7 +2877,7 @@
       <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="AJ36" s="2"/>
+      <c r="AJ36" s="4"/>
       <c r="AK36" s="2"/>
       <c r="AM36" s="2"/>
       <c r="AN36" s="1"/>
@@ -3532,7 +3532,7 @@
     <row r="77" spans="1:107" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:J2 Q2 C3 J3 R3 F5:M5 T5 F6:N6 U6 G7:O7 V7 H8:P8 W8 I9:Q9 X9 J10:R10 Y10 K11:S11 Z11 L12:T12 AA12 M13:U13 AB13 N14:V14 AC14 O15:W15 AD15 P16:X16 AE16 Q17:Y17 AF17 R18:Z18 AG18 S19:AA19 AH19 T20:AB20 U21:AC21 V22:AD22 W23:AE23 X24:AF24 Y25:AG25 Z26:AH26 AI20 AJ21 AK22 AL23 AM24 AN25 AO26 AA27:AI27 AP27 AB28:AJ28 AQ28 AC29:AK29 AR29 AD30:AL30 AS30 AE31:AM31 AT31 AF32:AN32 AU32 AG33:AO33 AV33 AH34:AP34 AW34 AI35:AQ35 AX35 AJ36:AR36 AY36 AK37:AS37 AZ37 AL38:AT38 BA38 AM39:AU39 BB39 AN40:AV40 BC40 AO41:AW41 BD41 AP42:AX42 BE42 AQ43:AY43 BF43 AR44:AZ44 BG44 AS45:BA45 BH45 AT46:BB46 BI46 AU47:BC47 BJ47 AV48:BD48 BK48 AW49:BE49 BL49 AX50:BF50 BM50 AY51:BG51 BN51 AZ52:BH52 BO52 BA53:BI53 BP53 BB54:BJ54 BQ54 BC55:BK55 BR55 BD56:BL56 BS56 BE57:BM57 BT57 BF58:BN58 BU58 BG59:BO59 BV59 BH60:BP60 BW60 BI61:BQ61 BX61 BJ62:BR62 BY62 BK63:BS63 BZ63 BL64:BT64 CA64 BM65:BU65 CB65 BN66:BV66 CC66 BO67:BW67 CD67 BP68:BX68 CE68 BQ69:BY69 CF69 BR70:BZ70 CG70 BS71:CA71 CH71 BT72:CB72 CI72 BU73:CC73 CJ73 BV74:CD74 CK74 BW75:CE75 CL75 BX76:CF76 CM76">
+  <conditionalFormatting sqref="B2:J2 Q2 C3 J3 R3 F5:M5 T5 F6:N6 U6 G7:O7 V7 H8:P8 W8 I9:Q9 X9 J10:R10 Y10 K11:S11 Z11 L12:T12 AA12 M13:U13 AB13 N14:V14 AC14 O15:W15 AD15 P16:X16 AE16 Q17:Y17 AF17 R18:Z18 AG18 S19:AA19 AH19 T20:AB20 AI20 U21:AC21 AJ21 V22:AD22 AK22 W23:AE23 AL23 X24:AF24 AM24 Y25:AG25 AN25 Z26:AH26 AO26 AA27:AI27 AP27 AB28:AJ28 AQ28 AC29:AK29 AR29 AD30:AL30 AS30 AE31:AM31 AT31 AF32:AN32 AU32 AG33:AO33 AV33 AH34:AP34 AW34 AI35:AQ35 AX35 AJ36:AR36 AY36 AK37:AS37 AZ37 AL38:AT38 BA38 AM39:AU39 BB39 AN40:AV40 BC40 AO41:AW41 BD41 AP42:AX42 BE42 AQ43:AY43 BF43 AR44:AZ44 BG44 AS45:BA45 BH45 AT46:BB46 BI46 AU47:BC47 BJ47 AV48:BD48 BK48 AW49:BE49 BL49 AX50:BF50 BM50 AY51:BG51 BN51 AZ52:BH52 BO52 BA53:BI53 BP53 BB54:BJ54 BQ54 BC55:BK55 BR55 BD56:BL56 BS56 BE57:BM57 BT57 BF58:BN58 BU58 BG59:BO59 BV59 BH60:BP60 BW60 BI61:BQ61 BX61 BJ62:BR62 BY62 BK63:BS63 BZ63 BL64:BT64 CA64 BM65:BU65 CB65 BN66:BV66 CC66 BO67:BW67 CD67 BP68:BX68 CE68 BQ69:BY69 CF69 BR70:BZ70 CG70 BS71:CA71 CH71 BT72:CB72 CI72 BU73:CC73 CJ73 BV74:CD74 CK74 BW75:CE75 CL75 BX76:CF76 CM76">
     <cfRule type="expression" dxfId="5" priority="99">
       <formula>OR(B$1=$C2+0, B$1=$C2+1, B$1=$C2+3, B$1=$C2+7+$A$4, B$1=$C2+15, B$1=$C2+30)</formula>
     </cfRule>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3BDDC4-4FD9-4148-9C22-E6963FD07911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525A2B07-2088-5441-B265-50139F042F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13220" yWindow="620" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11340" yWindow="780" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1106,11 +1106,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:OF77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="249" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ6" sqref="AJ6"/>
+      <selection pane="bottomRight" activeCell="AK5" sqref="AK5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2407,7 +2407,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="U6" s="4"/>
-      <c r="AK6" s="3"/>
+      <c r="AK6" s="7"/>
     </row>
     <row r="7" spans="1:396" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2662,7 +2662,7 @@
       <c r="AC22" s="4"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
-      <c r="AK22" s="2"/>
+      <c r="AK22" s="4"/>
       <c r="BA22" s="3"/>
     </row>
     <row r="23" spans="1:63" x14ac:dyDescent="0.2">
@@ -2787,7 +2787,7 @@
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
-      <c r="AK30" s="2"/>
+      <c r="AK30" s="4"/>
       <c r="AL30" s="1"/>
       <c r="AM30" s="1"/>
       <c r="AS30" s="2"/>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="AH34" s="4"/>
       <c r="AI34" s="4"/>
-      <c r="AK34" s="2"/>
+      <c r="AK34" s="4"/>
       <c r="AL34" s="1"/>
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
@@ -2878,7 +2878,7 @@
         <v>34</v>
       </c>
       <c r="AJ36" s="4"/>
-      <c r="AK36" s="2"/>
+      <c r="AK36" s="4"/>
       <c r="AM36" s="2"/>
       <c r="AN36" s="1"/>
       <c r="AO36" s="1"/>
@@ -2893,7 +2893,7 @@
       <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="AK37" s="2"/>
+      <c r="AK37" s="4"/>
       <c r="AL37" s="2"/>
       <c r="AN37" s="2"/>
       <c r="AO37" s="1"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525A2B07-2088-5441-B265-50139F042F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7D2031-E8A8-E44E-8333-0F8EC4956C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11340" yWindow="780" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13280" yWindow="800" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1107,10 +1107,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK5" sqref="AK5"/>
+      <selection pane="bottomRight" activeCell="AL5" sqref="AL5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2423,7 +2423,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="V7" s="4"/>
-      <c r="AL7" s="3"/>
+      <c r="AL7" s="7"/>
     </row>
     <row r="8" spans="1:396" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2678,7 +2678,7 @@
       <c r="AD23" s="4"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
-      <c r="AL23" s="2"/>
+      <c r="AL23" s="4"/>
       <c r="BB23" s="3"/>
     </row>
     <row r="24" spans="1:63" x14ac:dyDescent="0.2">
@@ -2803,7 +2803,7 @@
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
-      <c r="AL31" s="2"/>
+      <c r="AL31" s="4"/>
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
       <c r="AT31" s="2"/>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="AI35" s="4"/>
       <c r="AJ35" s="4"/>
-      <c r="AL35" s="2"/>
+      <c r="AL35" s="4"/>
       <c r="AM35" s="1"/>
       <c r="AN35" s="1"/>
       <c r="AO35" s="1"/>
@@ -2894,7 +2894,7 @@
         <v>35</v>
       </c>
       <c r="AK37" s="4"/>
-      <c r="AL37" s="2"/>
+      <c r="AL37" s="4"/>
       <c r="AN37" s="2"/>
       <c r="AO37" s="1"/>
       <c r="AP37" s="1"/>
@@ -2909,7 +2909,7 @@
       <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="AL38" s="2"/>
+      <c r="AL38" s="4"/>
       <c r="AM38" s="2"/>
       <c r="AO38" s="2"/>
       <c r="AP38" s="1"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7D2031-E8A8-E44E-8333-0F8EC4956C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9532EBFA-F3C0-064F-BC0F-BBBEA4A8B50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13280" yWindow="800" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14820" yWindow="700" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1107,10 +1107,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL5" sqref="AL5"/>
+      <selection pane="bottomRight" activeCell="AM9" sqref="AM9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2439,7 +2439,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="W8" s="4"/>
-      <c r="AM8" s="3"/>
+      <c r="AM8" s="7"/>
     </row>
     <row r="9" spans="1:396" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2694,7 +2694,7 @@
       <c r="AE24" s="4"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
-      <c r="AM24" s="2"/>
+      <c r="AM24" s="4"/>
       <c r="BC24" s="3"/>
     </row>
     <row r="25" spans="1:63" x14ac:dyDescent="0.2">
@@ -2819,7 +2819,7 @@
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
-      <c r="AM32" s="2"/>
+      <c r="AM32" s="4"/>
       <c r="AN32" s="1"/>
       <c r="AO32" s="1"/>
       <c r="AU32" s="2"/>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="AJ36" s="4"/>
       <c r="AK36" s="4"/>
-      <c r="AM36" s="2"/>
+      <c r="AM36" s="4"/>
       <c r="AN36" s="1"/>
       <c r="AO36" s="1"/>
       <c r="AP36" s="1"/>
@@ -2910,7 +2910,7 @@
         <v>36</v>
       </c>
       <c r="AL38" s="4"/>
-      <c r="AM38" s="2"/>
+      <c r="AM38" s="4"/>
       <c r="AO38" s="2"/>
       <c r="AP38" s="1"/>
       <c r="AQ38" s="1"/>
@@ -2925,7 +2925,7 @@
       <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="AM39" s="2"/>
+      <c r="AM39" s="4"/>
       <c r="AN39" s="2"/>
       <c r="AP39" s="2"/>
       <c r="AQ39" s="1"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9532EBFA-F3C0-064F-BC0F-BBBEA4A8B50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B90A50C-DCF4-9C46-A840-2E090BF675B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14820" yWindow="700" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1107,10 +1107,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AM9" sqref="AM9"/>
+      <selection pane="bottomRight" activeCell="AM42" sqref="AM42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B90A50C-DCF4-9C46-A840-2E090BF675B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D4B5A7-BC91-054B-8C37-2C342133E5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12280" yWindow="940" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1107,10 +1107,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AM42" sqref="AM42"/>
+      <selection pane="bottomRight" activeCell="AN13" sqref="AN13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2455,7 +2455,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="X9" s="4"/>
-      <c r="AN9" s="3"/>
+      <c r="AN9" s="7"/>
     </row>
     <row r="10" spans="1:396" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -2710,7 +2710,7 @@
       <c r="AF25" s="4"/>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
-      <c r="AN25" s="2"/>
+      <c r="AN25" s="4"/>
       <c r="BD25" s="3"/>
     </row>
     <row r="26" spans="1:63" x14ac:dyDescent="0.2">
@@ -2835,7 +2835,7 @@
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
       <c r="AM33" s="1"/>
-      <c r="AN33" s="2"/>
+      <c r="AN33" s="4"/>
       <c r="AO33" s="1"/>
       <c r="AP33" s="1"/>
       <c r="AV33" s="2"/>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="AK37" s="4"/>
       <c r="AL37" s="4"/>
-      <c r="AN37" s="2"/>
+      <c r="AN37" s="4"/>
       <c r="AO37" s="1"/>
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1"/>
@@ -2926,7 +2926,7 @@
         <v>37</v>
       </c>
       <c r="AM39" s="4"/>
-      <c r="AN39" s="2"/>
+      <c r="AN39" s="4"/>
       <c r="AP39" s="2"/>
       <c r="AQ39" s="1"/>
       <c r="AR39" s="1"/>
@@ -2941,7 +2941,7 @@
       <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="AN40" s="2"/>
+      <c r="AN40" s="4"/>
       <c r="AO40" s="2"/>
       <c r="AQ40" s="2"/>
       <c r="AR40" s="1"/>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D4B5A7-BC91-054B-8C37-2C342133E5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD527BE-9A5D-D142-8EEF-5EF2EC385ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12280" yWindow="940" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12240" yWindow="1160" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1107,10 +1107,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AN13" sqref="AN13"/>
+      <selection pane="bottomRight" activeCell="AO8" sqref="AO8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2471,7 +2471,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="Y10" s="4"/>
-      <c r="AO10" s="3"/>
+      <c r="AO10" s="7"/>
     </row>
     <row r="11" spans="1:396" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -2726,7 +2726,7 @@
       <c r="AG26" s="4"/>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
-      <c r="AO26" s="2"/>
+      <c r="AO26" s="4"/>
       <c r="BE26" s="3"/>
     </row>
     <row r="27" spans="1:63" x14ac:dyDescent="0.2">
@@ -2851,7 +2851,7 @@
       <c r="AL34" s="1"/>
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
-      <c r="AO34" s="2"/>
+      <c r="AO34" s="4"/>
       <c r="AP34" s="1"/>
       <c r="AQ34" s="1"/>
       <c r="AW34" s="2"/>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="AL38" s="4"/>
       <c r="AM38" s="4"/>
-      <c r="AO38" s="2"/>
+      <c r="AO38" s="4"/>
       <c r="AP38" s="1"/>
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
@@ -2942,7 +2942,7 @@
         <v>38</v>
       </c>
       <c r="AN40" s="4"/>
-      <c r="AO40" s="2"/>
+      <c r="AO40" s="4"/>
       <c r="AQ40" s="2"/>
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
@@ -2957,7 +2957,7 @@
       <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="AO41" s="2"/>
+      <c r="AO41" s="4"/>
       <c r="AP41" s="2"/>
       <c r="AR41" s="2"/>
       <c r="AS41" s="1"/>
@@ -3532,7 +3532,7 @@
     <row r="77" spans="1:107" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:J2 Q2 C3 J3 R3 F5:M5 T5 F6:N6 U6 G7:O7 V7 H8:P8 W8 I9:Q9 X9 J10:R10 Y10 K11:S11 Z11 L12:T12 AA12 M13:U13 AB13 N14:V14 AC14 O15:W15 AD15 P16:X16 AE16 Q17:Y17 AF17 R18:Z18 AG18 S19:AA19 AH19 T20:AB20 AI20 U21:AC21 AJ21 V22:AD22 AK22 W23:AE23 AL23 X24:AF24 AM24 Y25:AG25 AN25 Z26:AH26 AO26 AA27:AI27 AP27 AB28:AJ28 AQ28 AC29:AK29 AR29 AD30:AL30 AS30 AE31:AM31 AT31 AF32:AN32 AU32 AG33:AO33 AV33 AH34:AP34 AW34 AI35:AQ35 AX35 AJ36:AR36 AY36 AK37:AS37 AZ37 AL38:AT38 BA38 AM39:AU39 BB39 AN40:AV40 BC40 AO41:AW41 BD41 AP42:AX42 BE42 AQ43:AY43 BF43 AR44:AZ44 BG44 AS45:BA45 BH45 AT46:BB46 BI46 AU47:BC47 BJ47 AV48:BD48 BK48 AW49:BE49 BL49 AX50:BF50 BM50 AY51:BG51 BN51 AZ52:BH52 BO52 BA53:BI53 BP53 BB54:BJ54 BQ54 BC55:BK55 BR55 BD56:BL56 BS56 BE57:BM57 BT57 BF58:BN58 BU58 BG59:BO59 BV59 BH60:BP60 BW60 BI61:BQ61 BX61 BJ62:BR62 BY62 BK63:BS63 BZ63 BL64:BT64 CA64 BM65:BU65 CB65 BN66:BV66 CC66 BO67:BW67 CD67 BP68:BX68 CE68 BQ69:BY69 CF69 BR70:BZ70 CG70 BS71:CA71 CH71 BT72:CB72 CI72 BU73:CC73 CJ73 BV74:CD74 CK74 BW75:CE75 CL75 BX76:CF76 CM76">
+  <conditionalFormatting sqref="B2:J2 Q2 C3 J3 R3 F5:M5 T5 F6:N6 U6 G7:O7 V7 H8:P8 W8 I9:Q9 X9 J10:R10 Y10 K11:S11 Z11 L12:T12 AA12 M13:U13 AB13 N14:V14 AC14 O15:W15 AD15 P16:X16 AE16 Q17:Y17 AF17 R18:Z18 AG18 S19:AA19 AH19 T20:AB20 AI20 U21:AC21 AJ21 V22:AD22 AK22 W23:AE23 AL23 X24:AF24 AM24 Y25:AG25 AN25 Z26:AH26 AO26 AA27:AI27 AP27 AB28:AJ28 AQ28 AC29:AK29 AD30:AL30 AE31:AM31 AF32:AN32 AR29 AS30 AT31 AU32 AG33:AO33 AV33 AH34:AP34 AW34 AI35:AQ35 AX35 AJ36:AR36 AY36 AK37:AS37 AZ37 AL38:AT38 BA38 AM39:AU39 BB39 AN40:AV40 BC40 AO41:AW41 BD41 AP42:AX42 BE42 AQ43:AY43 BF43 AR44:AZ44 BG44 AS45:BA45 BH45 AT46:BB46 BI46 AU47:BC47 BJ47 AV48:BD48 BK48 AW49:BE49 BL49 AX50:BF50 BM50 AY51:BG51 BN51 AZ52:BH52 BO52 BA53:BI53 BP53 BB54:BJ54 BQ54 BC55:BK55 BR55 BD56:BL56 BS56 BE57:BM57 BT57 BF58:BN58 BU58 BG59:BO59 BV59 BH60:BP60 BW60 BI61:BQ61 BX61 BJ62:BR62 BY62 BK63:BS63 BZ63 BL64:BT64 CA64 BM65:BU65 CB65 BN66:BV66 CC66 BO67:BW67 CD67 BP68:BX68 CE68 BQ69:BY69 CF69 BR70:BZ70 CG70 BS71:CA71 CH71 BT72:CB72 CI72 BU73:CC73 CJ73 BV74:CD74 CK74 BW75:CE75 CL75 BX76:CF76 CM76">
     <cfRule type="expression" dxfId="5" priority="99">
       <formula>OR(B$1=$C2+0, B$1=$C2+1, B$1=$C2+3, B$1=$C2+7+$A$4, B$1=$C2+15, B$1=$C2+30)</formula>
     </cfRule>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD527BE-9A5D-D142-8EEF-5EF2EC385ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F188F97-EF1A-C543-953C-25D3EF22C57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="1160" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13080" yWindow="600" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1107,10 +1107,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO8" sqref="AO8"/>
+      <selection pane="bottomRight" activeCell="AP10" sqref="AP10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2487,7 +2487,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="Z11" s="4"/>
-      <c r="AP11" s="3"/>
+      <c r="AP11" s="7"/>
     </row>
     <row r="12" spans="1:396" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2742,7 +2742,7 @@
       <c r="AH27" s="4"/>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
-      <c r="AP27" s="2"/>
+      <c r="AP27" s="4"/>
       <c r="BF27" s="3"/>
     </row>
     <row r="28" spans="1:63" x14ac:dyDescent="0.2">
@@ -2867,7 +2867,7 @@
       <c r="AM35" s="1"/>
       <c r="AN35" s="1"/>
       <c r="AO35" s="1"/>
-      <c r="AP35" s="2"/>
+      <c r="AP35" s="4"/>
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
       <c r="AX35" s="2"/>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="AM39" s="4"/>
       <c r="AN39" s="4"/>
-      <c r="AP39" s="2"/>
+      <c r="AP39" s="4"/>
       <c r="AQ39" s="1"/>
       <c r="AR39" s="1"/>
       <c r="AS39" s="1"/>
@@ -2958,7 +2958,7 @@
         <v>39</v>
       </c>
       <c r="AO41" s="4"/>
-      <c r="AP41" s="2"/>
+      <c r="AP41" s="4"/>
       <c r="AR41" s="2"/>
       <c r="AS41" s="1"/>
       <c r="AT41" s="1"/>
@@ -2973,7 +2973,7 @@
       <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="AP42" s="2"/>
+      <c r="AP42" s="4"/>
       <c r="AQ42" s="2"/>
       <c r="AS42" s="2"/>
       <c r="AT42" s="1"/>
@@ -3532,7 +3532,7 @@
     <row r="77" spans="1:107" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:J2 Q2 C3 J3 R3 F5:M5 T5 F6:N6 U6 G7:O7 V7 H8:P8 W8 I9:Q9 X9 J10:R10 Y10 K11:S11 Z11 L12:T12 AA12 M13:U13 AB13 N14:V14 AC14 O15:W15 AD15 P16:X16 AE16 Q17:Y17 AF17 R18:Z18 AG18 S19:AA19 AH19 T20:AB20 AI20 U21:AC21 AJ21 V22:AD22 AK22 W23:AE23 AL23 X24:AF24 AM24 Y25:AG25 AN25 Z26:AH26 AO26 AA27:AI27 AP27 AB28:AJ28 AQ28 AC29:AK29 AD30:AL30 AE31:AM31 AF32:AN32 AR29 AS30 AT31 AU32 AG33:AO33 AV33 AH34:AP34 AW34 AI35:AQ35 AX35 AJ36:AR36 AY36 AK37:AS37 AZ37 AL38:AT38 BA38 AM39:AU39 BB39 AN40:AV40 BC40 AO41:AW41 BD41 AP42:AX42 BE42 AQ43:AY43 BF43 AR44:AZ44 BG44 AS45:BA45 BH45 AT46:BB46 BI46 AU47:BC47 BJ47 AV48:BD48 BK48 AW49:BE49 BL49 AX50:BF50 BM50 AY51:BG51 BN51 AZ52:BH52 BO52 BA53:BI53 BP53 BB54:BJ54 BQ54 BC55:BK55 BR55 BD56:BL56 BS56 BE57:BM57 BT57 BF58:BN58 BU58 BG59:BO59 BV59 BH60:BP60 BW60 BI61:BQ61 BX61 BJ62:BR62 BY62 BK63:BS63 BZ63 BL64:BT64 CA64 BM65:BU65 CB65 BN66:BV66 CC66 BO67:BW67 CD67 BP68:BX68 CE68 BQ69:BY69 CF69 BR70:BZ70 CG70 BS71:CA71 CH71 BT72:CB72 CI72 BU73:CC73 CJ73 BV74:CD74 CK74 BW75:CE75 CL75 BX76:CF76 CM76">
+  <conditionalFormatting sqref="B2:J2 Q2 C3 J3 R3 F5:M5 T5 F6:N6 U6 G7:O7 V7 H8:P8 W8 I9:Q9 X9 J10:R10 Y10 K11:S11 Z11 L12:T12 AA12 M13:U13 AB13 N14:V14 AC14 O15:W15 AD15 P16:X16 AE16 Q17:Y17 AF17 R18:Z18 AG18 S19:AA19 AH19 T20:AB20 AI20 U21:AC21 AJ21 V22:AD22 AK22 W23:AE23 AL23 X24:AF24 AM24 Y25:AG25 AN25 Z26:AH26 AO26 AA27:AI27 AP27 AB28:AJ28 AQ28 AC29:AK29 AR29 AD30:AL30 AS30 AE31:AM31 AT31 AF32:AN32 AU32 AG33:AO33 AV33 AH34:AP34 AW34 AI35:AQ35 AX35 AJ36:AR36 AY36 AK37:AS37 AZ37 AL38:AT38 BA38 AM39:AU39 BB39 AN40:AV40 BC40 AO41:AW41 BD41 AP42:AX42 BE42 AQ43:AY43 BF43 AR44:AZ44 BG44 AS45:BA45 BH45 AT46:BB46 BI46 AU47:BC47 BJ47 AV48:BD48 BK48 AW49:BE49 BL49 AX50:BF50 BM50 AY51:BG51 BN51 AZ52:BH52 BO52 BA53:BI53 BP53 BB54:BJ54 BQ54 BC55:BK55 BR55 BD56:BL56 BS56 BE57:BM57 BT57 BF58:BN58 BU58 BG59:BO59 BV59 BH60:BP60 BW60 BI61:BQ61 BX61 BJ62:BR62 BY62 BK63:BS63 BZ63 BL64:BT64 CA64 BM65:BU65 CB65 BN66:BV66 CC66 BO67:BW67 CD67 BP68:BX68 CE68 BQ69:BY69 CF69 BR70:BZ70 CG70 BS71:CA71 CH71 BT72:CB72 CI72 BU73:CC73 CJ73 BV74:CD74 CK74 BW75:CE75 CL75 BX76:CF76 CM76">
     <cfRule type="expression" dxfId="5" priority="99">
       <formula>OR(B$1=$C2+0, B$1=$C2+1, B$1=$C2+3, B$1=$C2+7+$A$4, B$1=$C2+15, B$1=$C2+30)</formula>
     </cfRule>

--- a/plan/plan on reviewing words .xlsx
+++ b/plan/plan on reviewing words .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F188F97-EF1A-C543-953C-25D3EF22C57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1751F23B-63DA-A14B-AD4D-5D2CD079FCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13080" yWindow="600" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11360" yWindow="980" windowWidth="35840" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1107,10 +1107,10 @@
   <dimension ref="A1:OF77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AP29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP10" sqref="AP10"/>
+      <selection pane="bottomRight" activeCell="AQ44" sqref="AQ44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2503,7 +2503,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="AA12" s="4"/>
-      <c r="AQ12" s="3"/>
+      <c r="AQ12" s="7"/>
     </row>
     <row r="13" spans="1:396" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -2758,7 +2758,7 @@
       <c r="AI28" s="4"/>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
-      <c r="AQ28" s="2"/>
+      <c r="AQ28" s="4"/>
       <c r="BG28" s="3"/>
     </row>
     <row r="29" spans="1:63" x14ac:dyDescent="0.2">
@@ -2883,7 +2883,7 @@
       <c r="AN36" s="1"/>
       <c r="AO36" s="1"/>
       <c r="AP36" s="1"/>
-      <c r="AQ36" s="2"/>
+      <c r="AQ36" s="4"/>
       <c r="AR36" s="1"/>
       <c r="AS36" s="1"/>
       <c r="AY36" s="2"/>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="AN40" s="4"/>
       <c r="AO40" s="4"/>
-      <c r="AQ40" s="2"/>
+      <c r="AQ40" s="4"/>
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
       <c r="AT40" s="1"/>
@@ -2974,7 +2974,7 @@
         <v>40</v>
       </c>
       <c r="AP42" s="4"/>
-      <c r="AQ42" s="2"/>
+      <c r="AQ42" s="4"/>
       <c r="AS42" s="2"/>
       <c r="AT42" s="1"/>
       <c r="AU42" s="1"/>
@@ -2989,7 +2989,7 @@
       <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="AQ43" s="2"/>
+      <c r="AQ43" s="4"/>
       <c r="AR43" s="2"/>
       <c r="AT43" s="2"/>
       <c r="AU43" s="1"/>
@@ -3532,7 +3532,7 @@
     <row r="77" spans="1:107" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:J2 Q2 C3 J3 R3 F5:M5 T5 F6:N6 U6 G7:O7 V7 H8:P8 W8 I9:Q9 X9 J10:R10 Y10 K11:S11 Z11 L12:T12 AA12 M13:U13 AB13 N14:V14 AC14 O15:W15 AD15 P16:X16 AE16 Q17:Y17 AF17 R18:Z18 AG18 S19:AA19 AH19 T20:AB20 AI20 U21:AC21 AJ21 V22:AD22 AK22 W23:AE23 AL23 X24:AF24 AM24 Y25:AG25 AN25 Z26:AH26 AO26 AA27:AI27 AP27 AB28:AJ28 AQ28 AC29:AK29 AR29 AD30:AL30 AS30 AE31:AM31 AT31 AF32:AN32 AU32 AG33:AO33 AV33 AH34:AP34 AW34 AI35:AQ35 AX35 AJ36:AR36 AY36 AK37:AS37 AZ37 AL38:AT38 BA38 AM39:AU39 BB39 AN40:AV40 BC40 AO41:AW41 BD41 AP42:AX42 BE42 AQ43:AY43 BF43 AR44:AZ44 BG44 AS45:BA45 BH45 AT46:BB46 BI46 AU47:BC47 BJ47 AV48:BD48 BK48 AW49:BE49 BL49 AX50:BF50 BM50 AY51:BG51 BN51 AZ52:BH52 BO52 BA53:BI53 BP53 BB54:BJ54 BQ54 BC55:BK55 BR55 BD56:BL56 BS56 BE57:BM57 BT57 BF58:BN58 BU58 BG59:BO59 BV59 BH60:BP60 BW60 BI61:BQ61 BX61 BJ62:BR62 BY62 BK63:BS63 BZ63 BL64:BT64 CA64 BM65:BU65 CB65 BN66:BV66 CC66 BO67:BW67 CD67 BP68:BX68 CE68 BQ69:BY69 CF69 BR70:BZ70 CG70 BS71:CA71 CH71 BT72:CB72 CI72 BU73:CC73 CJ73 BV74:CD74 CK74 BW75:CE75 CL75 BX76:CF76 CM76">
+  <conditionalFormatting sqref="B2:J2 Q2 C3 J3 R3 F5:M5 T5 F6:N6 U6 G7:O7 V7 H8:P8 W8 I9:Q9 X9 J10:R10 Y10 K11:S11 Z11 L12:T12 AA12 M13:U13 AB13 N14:V14 AC14 O15:W15 AD15 P16:X16 AE16 Q17:Y17 AF17 R18:Z18 AG18 S19:AA19 AH19 T20:AB20 AI20 U21:AC21 AJ21 V22:AD22 AK22 W23:AE23 AL23 X24:AF24 AM24 Y25:AG25 AN25 Z26:AH26 AO26 AA27:AI27 AP27 AB28:AJ28 AQ28 AC29:AK29 AD30:AL30 AE31:AM31 AF32:AN32 AG33:AO33 AH34:AP34 AR29 AS30 AT31 AU32 AV33 AW34 AI35:AQ35 AX35 AJ36:AR36 AY36 AK37:AS37 AZ37 AL38:AT38 BA38 AM39:AU39 BB39 AN40:AV40 BC40 AO41:AW41 BD41 AP42:AX42 BE42 AQ43:AY43 BF43 AR44:AZ44 BG44 AS45:BA45 BH45 AT46:BB46 BI46 AU47:BC47 BJ47 AV48:BD48 BK48 AW49:BE49 BL49 AX50:BF50 BM50 AY51:BG51 BN51 AZ52:BH52 BO52 BA53:BI53 BP53 BB54:BJ54 BQ54 BC55:BK55 BR55 BD56:BL56 BS56 BE57:BM57 BT57 BF58:BN58 BU58 BG59:BO59 BV59 BH60:BP60 BW60 BI61:BQ61 BX61 BJ62:BR62 BY62 BK63:BS63 BZ63 BL64:BT64 CA64 BM65:BU65 CB65 BN66:BV66 CC66 BO67:BW67 CD67 BP68:BX68 CE68 BQ69:BY69 CF69 BR70:BZ70 CG70 BS71:CA71 CH71 BT72:CB72 CI72 BU73:CC73 CJ73 BV74:CD74 CK74 BW75:CE75 CL75 BX76:CF76 CM76">
     <cfRule type="expression" dxfId="5" priority="99">
       <formula>OR(B$1=$C2+0, B$1=$C2+1, B$1=$C2+3, B$1=$C2+7+$A$4, B$1=$C2+15, B$1=$C2+30)</formula>
     </cfRule>
